--- a/Detailed-ASDE Training 60 Days TOC.xlsx
+++ b/Detailed-ASDE Training 60 Days TOC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sapient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sapient\classroom-training\shiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E8DBB2-1447-4FB6-8D96-5BDCE1626925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3D137C-A4A9-46FF-946C-8EF752CA8C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D7093CB6-88B4-4561-83B9-22029FC48322}"/>
   </bookViews>
@@ -19,7 +19,9 @@
     <sheet name="Participants" sheetId="3" r:id="rId4"/>
     <sheet name="Pre Teams" sheetId="4" r:id="rId5"/>
     <sheet name="Tech" sheetId="5" r:id="rId6"/>
-    <sheet name="Important Links" sheetId="8" r:id="rId7"/>
+    <sheet name="Softwares List" sheetId="9" r:id="rId7"/>
+    <sheet name="Important Links" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="452">
   <si>
     <t>Module</t>
   </si>
@@ -1351,6 +1353,45 @@
   </si>
   <si>
     <t>Rohitkumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geeksforgeeks.org/spring-mvc-basic-example-using-jstl/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geeksforgeeks.org/spring-mvc-with-mysql-and-junit-finding-employees-based-on-location/ </t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/executable-jar-with-maven</t>
+  </si>
+  <si>
+    <t>Creating executable jar using maven</t>
+  </si>
+  <si>
+    <t>https://javatechonline.com/spring-bean-life-cycle-method-examples/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/bean-life-cycle-in-java-spring/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/spring-beanpostprocessor/</t>
+  </si>
+  <si>
+    <t>Spring Web MVC with JSP &amp; MySQL - PSI -ASDE 2023 Assessment3</t>
+  </si>
+  <si>
+    <t>Simple Spring MVC Assignment for Testing for PSI - ASDE 2023</t>
+  </si>
+  <si>
+    <t>Vinayak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niharika </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prasanth  </t>
   </si>
 </sst>
 </file>
@@ -1960,7 +2001,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2278,6 +2319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2529,6 +2571,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{CD13CC36-6C53-423E-9D32-ED7E52E90EF2}"/>
@@ -3519,8 +3562,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3531,62 +3574,63 @@
     <col min="6" max="6" width="24.44140625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="162"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="163"/>
     </row>
     <row r="6" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -3598,10 +3642,10 @@
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="164" t="s">
+      <c r="D6" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="165"/>
+      <c r="E6" s="166"/>
       <c r="F6" s="21" t="s">
         <v>23</v>
       </c>
@@ -3619,20 +3663,20 @@
       <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="154" t="s">
+      <c r="C7" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="166" t="s">
+      <c r="E7" s="146"/>
+      <c r="F7" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="140" t="s">
+      <c r="G7" s="141" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="40"/>
@@ -3642,14 +3686,14 @@
       <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="145" t="s">
+      <c r="B8" s="164"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="145"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="140"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="141"/>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
     </row>
@@ -3657,20 +3701,20 @@
       <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="145"/>
-      <c r="F9" s="166" t="s">
+      <c r="E9" s="146"/>
+      <c r="F9" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="140"/>
+      <c r="G9" s="141"/>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
     </row>
@@ -3678,14 +3722,14 @@
       <c r="A10" s="8">
         <v>4</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="150" t="s">
+      <c r="B10" s="156"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="150"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="140"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="141"/>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
     </row>
@@ -3699,14 +3743,14 @@
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="145" t="s">
+      <c r="D11" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="145"/>
+      <c r="E11" s="146"/>
       <c r="F11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="140"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
     </row>
@@ -3720,14 +3764,14 @@
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="150" t="s">
+      <c r="D12" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="150"/>
+      <c r="E12" s="151"/>
       <c r="F12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="140"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="40" t="s">
         <v>258</v>
       </c>
@@ -3743,14 +3787,14 @@
       <c r="C13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="153" t="s">
+      <c r="D13" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="153"/>
+      <c r="E13" s="154"/>
       <c r="F13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="140"/>
+      <c r="G13" s="141"/>
       <c r="H13" s="40" t="s">
         <v>259</v>
       </c>
@@ -3766,14 +3810,14 @@
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="D14" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="149"/>
+      <c r="E14" s="150"/>
       <c r="F14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="140" t="s">
+      <c r="G14" s="141" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="40" t="s">
@@ -3791,14 +3835,14 @@
       <c r="C15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="151" t="s">
+      <c r="D15" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="151"/>
+      <c r="E15" s="152"/>
       <c r="F15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="140"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="40" t="s">
         <v>263</v>
       </c>
@@ -3816,14 +3860,14 @@
       <c r="C16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="151" t="s">
+      <c r="D16" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="151"/>
+      <c r="E16" s="152"/>
       <c r="F16" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="140"/>
+      <c r="G16" s="141"/>
       <c r="H16" s="40" t="s">
         <v>264</v>
       </c>
@@ -3841,14 +3885,14 @@
       <c r="C17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="149"/>
+      <c r="E17" s="150"/>
       <c r="F17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="140"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="40" t="s">
         <v>265</v>
       </c>
@@ -3866,14 +3910,14 @@
       <c r="C18" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="D18" s="149" t="s">
+      <c r="D18" s="150" t="s">
         <v>436</v>
       </c>
-      <c r="E18" s="149"/>
+      <c r="E18" s="150"/>
       <c r="F18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="140"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="40" t="s">
         <v>266</v>
       </c>
@@ -3891,14 +3935,14 @@
       <c r="C19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="153" t="s">
         <v>435</v>
       </c>
-      <c r="E19" s="152"/>
+      <c r="E19" s="153"/>
       <c r="F19" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="140" t="s">
+      <c r="G19" s="141" t="s">
         <v>28</v>
       </c>
       <c r="H19" s="40" t="s">
@@ -3918,14 +3962,14 @@
       <c r="C20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="145" t="s">
+      <c r="D20" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="145"/>
+      <c r="E20" s="146"/>
       <c r="F20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="140"/>
+      <c r="G20" s="141"/>
       <c r="H20" s="40" t="s">
         <v>186</v>
       </c>
@@ -3943,14 +3987,14 @@
       <c r="C21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="145" t="s">
+      <c r="D21" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="145"/>
+      <c r="E21" s="146"/>
       <c r="F21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="141"/>
       <c r="H21" s="40" t="s">
         <v>174</v>
       </c>
@@ -3968,14 +4012,14 @@
       <c r="C22" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="150" t="s">
+      <c r="D22" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="150"/>
+      <c r="E22" s="151"/>
       <c r="F22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="140"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="40" t="s">
         <v>262</v>
       </c>
@@ -3993,18 +4037,20 @@
       <c r="C23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="150" t="s">
+      <c r="D23" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="150"/>
+      <c r="E23" s="151"/>
       <c r="F23" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="140"/>
+      <c r="G23" s="141"/>
       <c r="H23" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="I23" s="40"/>
+      <c r="I23" s="40" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
@@ -4016,20 +4062,22 @@
       <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="141" t="s">
+      <c r="D24" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="142"/>
+      <c r="E24" s="143"/>
       <c r="F24" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="140" t="s">
+      <c r="G24" s="141" t="s">
         <v>28</v>
       </c>
       <c r="H24" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="I24" s="40"/>
+      <c r="I24" s="40" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
@@ -4041,18 +4089,20 @@
       <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="143" t="s">
+      <c r="D25" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="144"/>
+      <c r="E25" s="145"/>
       <c r="F25" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="140"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="40"/>
+      <c r="I25" s="40" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
@@ -4064,18 +4114,20 @@
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="145" t="s">
+      <c r="D26" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="145"/>
+      <c r="E26" s="146"/>
       <c r="F26" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="I26" s="40"/>
+      <c r="I26" s="40" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
@@ -4087,16 +4139,20 @@
       <c r="C27" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="146" t="s">
+      <c r="D27" s="147" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="147"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="140"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
@@ -4108,16 +4164,20 @@
       <c r="C28" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="148" t="s">
+      <c r="D28" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="149"/>
+      <c r="E28" s="150"/>
       <c r="F28" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="140"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
@@ -4129,18 +4189,22 @@
       <c r="C29" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="169" t="s">
+      <c r="D29" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="170"/>
+      <c r="E29" s="171"/>
       <c r="F29" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="140" t="s">
+      <c r="G29" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
+      <c r="H29" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
@@ -4152,16 +4216,20 @@
       <c r="C30" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="168" t="s">
+      <c r="D30" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="168"/>
+      <c r="E30" s="169"/>
       <c r="F30" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="140"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
@@ -4173,16 +4241,20 @@
       <c r="C31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="168" t="s">
+      <c r="D31" s="169" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="168"/>
+      <c r="E31" s="169"/>
       <c r="F31" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="140"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25">
@@ -4194,16 +4266,20 @@
       <c r="C32" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="168" t="s">
+      <c r="D32" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="168"/>
+      <c r="E32" s="169"/>
       <c r="F32" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="140"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" s="40" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
@@ -4215,16 +4291,20 @@
       <c r="C33" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="168" t="s">
+      <c r="D33" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="168"/>
+      <c r="E33" s="169"/>
       <c r="F33" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="140"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
@@ -4233,14 +4313,20 @@
       <c r="B34" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="137" t="s">
+      <c r="C34" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="138"/>
-      <c r="E34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="140"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="167" t="s">
+      <c r="G34" s="168" t="s">
         <v>87</v>
+      </c>
+      <c r="H34" s="225" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34" s="225" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4250,13 +4336,13 @@
       <c r="B35" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="137" t="s">
+      <c r="C35" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="138"/>
-      <c r="E35" s="139"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="140"/>
       <c r="F35" s="33"/>
-      <c r="G35" s="167"/>
+      <c r="G35" s="168"/>
     </row>
     <row r="36" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -4265,13 +4351,13 @@
       <c r="B36" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="137" t="s">
+      <c r="C36" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="138"/>
-      <c r="E36" s="139"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="140"/>
       <c r="F36" s="33"/>
-      <c r="G36" s="167"/>
+      <c r="G36" s="168"/>
     </row>
     <row r="37" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
@@ -4280,13 +4366,13 @@
       <c r="B37" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="137" t="s">
+      <c r="C37" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="138"/>
-      <c r="E37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="140"/>
       <c r="F37" s="33"/>
-      <c r="G37" s="167"/>
+      <c r="G37" s="168"/>
     </row>
     <row r="38" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
@@ -4295,13 +4381,13 @@
       <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="137" t="s">
+      <c r="C38" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="138"/>
-      <c r="E38" s="139"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="140"/>
       <c r="F38" s="33"/>
-      <c r="G38" s="167"/>
+      <c r="G38" s="168"/>
     </row>
     <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
@@ -4310,13 +4396,13 @@
       <c r="B39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="137" t="s">
+      <c r="C39" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="138"/>
-      <c r="E39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="140"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="167"/>
+      <c r="G39" s="168"/>
     </row>
     <row r="40" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -4325,13 +4411,13 @@
       <c r="B40" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="137" t="s">
+      <c r="C40" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="138"/>
-      <c r="E40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="140"/>
       <c r="F40" s="33"/>
-      <c r="G40" s="167"/>
+      <c r="G40" s="168"/>
     </row>
     <row r="41" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
@@ -4340,13 +4426,13 @@
       <c r="B41" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="137" t="s">
+      <c r="C41" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="138"/>
-      <c r="E41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="140"/>
       <c r="F41" s="33"/>
-      <c r="G41" s="167"/>
+      <c r="G41" s="168"/>
     </row>
     <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
@@ -4355,13 +4441,13 @@
       <c r="B42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="137" t="s">
+      <c r="C42" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="138"/>
-      <c r="E42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="140"/>
       <c r="F42" s="33"/>
-      <c r="G42" s="167"/>
+      <c r="G42" s="168"/>
     </row>
     <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
@@ -4370,13 +4456,13 @@
       <c r="B43" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="137" t="s">
+      <c r="C43" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="138"/>
-      <c r="E43" s="139"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="140"/>
       <c r="F43" s="33"/>
-      <c r="G43" s="167"/>
+      <c r="G43" s="168"/>
     </row>
     <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
@@ -4385,13 +4471,13 @@
       <c r="B44" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="137" t="s">
+      <c r="C44" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="138"/>
-      <c r="E44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="140"/>
       <c r="F44" s="33"/>
-      <c r="G44" s="167"/>
+      <c r="G44" s="168"/>
     </row>
     <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
@@ -4400,13 +4486,13 @@
       <c r="B45" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="137" t="s">
+      <c r="C45" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="138"/>
-      <c r="E45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="140"/>
       <c r="F45" s="33"/>
-      <c r="G45" s="167"/>
+      <c r="G45" s="168"/>
     </row>
     <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
@@ -4415,13 +4501,13 @@
       <c r="B46" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="137" t="s">
+      <c r="C46" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="138"/>
-      <c r="E46" s="139"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="140"/>
       <c r="F46" s="33"/>
-      <c r="G46" s="167"/>
+      <c r="G46" s="168"/>
     </row>
     <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
@@ -4430,13 +4516,13 @@
       <c r="B47" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="137" t="s">
+      <c r="C47" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="138"/>
-      <c r="E47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="140"/>
       <c r="F47" s="33"/>
-      <c r="G47" s="167"/>
+      <c r="G47" s="168"/>
     </row>
     <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
@@ -4445,13 +4531,13 @@
       <c r="B48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="137" t="s">
+      <c r="C48" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="138"/>
-      <c r="E48" s="139"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="140"/>
       <c r="F48" s="33"/>
-      <c r="G48" s="167"/>
+      <c r="G48" s="168"/>
     </row>
     <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
@@ -4460,13 +4546,13 @@
       <c r="B49" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="137" t="s">
+      <c r="C49" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="138"/>
-      <c r="E49" s="139"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="140"/>
       <c r="F49" s="33"/>
-      <c r="G49" s="167"/>
+      <c r="G49" s="168"/>
     </row>
     <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
@@ -4475,13 +4561,13 @@
       <c r="B50" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="137" t="s">
+      <c r="C50" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="138"/>
-      <c r="E50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="140"/>
       <c r="F50" s="33"/>
-      <c r="G50" s="167"/>
+      <c r="G50" s="168"/>
     </row>
     <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
@@ -4490,13 +4576,13 @@
       <c r="B51" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="137" t="s">
+      <c r="C51" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="138"/>
-      <c r="E51" s="139"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="140"/>
       <c r="F51" s="33"/>
-      <c r="G51" s="167"/>
+      <c r="G51" s="168"/>
     </row>
     <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
@@ -4505,13 +4591,13 @@
       <c r="B52" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="137" t="s">
+      <c r="C52" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="138"/>
-      <c r="E52" s="139"/>
+      <c r="D52" s="139"/>
+      <c r="E52" s="140"/>
       <c r="F52" s="33"/>
-      <c r="G52" s="167"/>
+      <c r="G52" s="168"/>
     </row>
     <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
@@ -4520,13 +4606,13 @@
       <c r="B53" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="137" t="s">
+      <c r="C53" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="138"/>
-      <c r="E53" s="139"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="140"/>
       <c r="F53" s="33"/>
-      <c r="G53" s="167"/>
+      <c r="G53" s="168"/>
     </row>
     <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
@@ -4535,13 +4621,13 @@
       <c r="B54" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="137" t="s">
+      <c r="C54" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="138"/>
-      <c r="E54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="140"/>
       <c r="F54" s="33"/>
-      <c r="G54" s="167"/>
+      <c r="G54" s="168"/>
     </row>
     <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
@@ -4550,13 +4636,13 @@
       <c r="B55" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="137" t="s">
+      <c r="C55" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="138"/>
-      <c r="E55" s="139"/>
+      <c r="D55" s="139"/>
+      <c r="E55" s="140"/>
       <c r="F55" s="33"/>
-      <c r="G55" s="167"/>
+      <c r="G55" s="168"/>
     </row>
     <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
@@ -4565,13 +4651,13 @@
       <c r="B56" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="137" t="s">
+      <c r="C56" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="138"/>
-      <c r="E56" s="139"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="140"/>
       <c r="F56" s="33"/>
-      <c r="G56" s="167"/>
+      <c r="G56" s="168"/>
     </row>
     <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
@@ -4580,13 +4666,13 @@
       <c r="B57" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="137" t="s">
+      <c r="C57" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="138"/>
-      <c r="E57" s="139"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="140"/>
       <c r="F57" s="33"/>
-      <c r="G57" s="167"/>
+      <c r="G57" s="168"/>
     </row>
     <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
@@ -4595,13 +4681,13 @@
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="137" t="s">
+      <c r="C58" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="138"/>
-      <c r="E58" s="139"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="140"/>
       <c r="F58" s="33"/>
-      <c r="G58" s="167"/>
+      <c r="G58" s="168"/>
     </row>
     <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
@@ -4610,13 +4696,13 @@
       <c r="B59" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="137" t="s">
+      <c r="C59" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="138"/>
-      <c r="E59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="140"/>
       <c r="F59" s="33"/>
-      <c r="G59" s="167"/>
+      <c r="G59" s="168"/>
     </row>
     <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
@@ -4625,13 +4711,13 @@
       <c r="B60" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="137" t="s">
+      <c r="C60" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="138"/>
-      <c r="E60" s="139"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="140"/>
       <c r="F60" s="33"/>
-      <c r="G60" s="167"/>
+      <c r="G60" s="168"/>
     </row>
     <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
@@ -4640,13 +4726,13 @@
       <c r="B61" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="137" t="s">
+      <c r="C61" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="138"/>
-      <c r="E61" s="139"/>
+      <c r="D61" s="139"/>
+      <c r="E61" s="140"/>
       <c r="F61" s="33"/>
-      <c r="G61" s="167"/>
+      <c r="G61" s="168"/>
     </row>
     <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
@@ -4655,13 +4741,13 @@
       <c r="B62" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="137" t="s">
+      <c r="C62" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="138"/>
-      <c r="E62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="140"/>
       <c r="F62" s="33"/>
-      <c r="G62" s="167"/>
+      <c r="G62" s="168"/>
     </row>
     <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
@@ -4670,13 +4756,13 @@
       <c r="B63" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="137" t="s">
+      <c r="C63" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="138"/>
-      <c r="E63" s="139"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="140"/>
       <c r="F63" s="33"/>
-      <c r="G63" s="167"/>
+      <c r="G63" s="168"/>
     </row>
     <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -4685,13 +4771,13 @@
       <c r="B64" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="137" t="s">
+      <c r="C64" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="138"/>
-      <c r="E64" s="139"/>
+      <c r="D64" s="139"/>
+      <c r="E64" s="140"/>
       <c r="F64" s="33"/>
-      <c r="G64" s="167"/>
+      <c r="G64" s="168"/>
     </row>
     <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
@@ -4700,13 +4786,13 @@
       <c r="B65" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="137" t="s">
+      <c r="C65" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="138"/>
-      <c r="E65" s="139"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="140"/>
       <c r="F65" s="33"/>
-      <c r="G65" s="167"/>
+      <c r="G65" s="168"/>
     </row>
     <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
@@ -4715,13 +4801,13 @@
       <c r="B66" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="137" t="s">
+      <c r="C66" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="138"/>
-      <c r="E66" s="139"/>
+      <c r="D66" s="139"/>
+      <c r="E66" s="140"/>
       <c r="F66" s="33"/>
-      <c r="G66" s="167"/>
+      <c r="G66" s="168"/>
     </row>
     <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
@@ -4730,13 +4816,13 @@
       <c r="B67" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="137" t="s">
+      <c r="C67" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="138"/>
-      <c r="E67" s="139"/>
+      <c r="D67" s="139"/>
+      <c r="E67" s="140"/>
       <c r="F67" s="33"/>
-      <c r="G67" s="167"/>
+      <c r="G67" s="168"/>
     </row>
     <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
@@ -4745,13 +4831,13 @@
       <c r="B68" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="137" t="s">
+      <c r="C68" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="138"/>
-      <c r="E68" s="139"/>
+      <c r="D68" s="139"/>
+      <c r="E68" s="140"/>
       <c r="F68" s="33"/>
-      <c r="G68" s="167"/>
+      <c r="G68" s="168"/>
     </row>
     <row r="69" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
@@ -4848,7 +4934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43916B13-BD88-4D2F-802B-A972C58C5FFF}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4873,10 +4959,10 @@
       <c r="C1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="171"/>
+      <c r="E1" s="172"/>
       <c r="F1" s="72" t="s">
         <v>268</v>
       </c>
@@ -4885,16 +4971,16 @@
       <c r="A2" s="75">
         <v>1</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="146" t="s">
         <v>389</v>
       </c>
-      <c r="E2" s="145"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="4" t="s">
         <v>430</v>
       </c>
@@ -4906,12 +4992,12 @@
       <c r="A3" s="75">
         <v>2</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="145" t="s">
+      <c r="B3" s="187"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="146" t="s">
         <v>387</v>
       </c>
-      <c r="E3" s="145"/>
+      <c r="E3" s="146"/>
       <c r="F3" s="40" t="s">
         <v>431</v>
       </c>
@@ -4920,12 +5006,12 @@
       <c r="A4" s="75">
         <v>3</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="145" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="146" t="s">
         <v>390</v>
       </c>
-      <c r="E4" s="145"/>
+      <c r="E4" s="146"/>
       <c r="F4" s="40" t="s">
         <v>433</v>
       </c>
@@ -4934,12 +5020,12 @@
       <c r="A5" s="75">
         <v>4</v>
       </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="145" t="s">
+      <c r="B5" s="188"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="146" t="s">
         <v>388</v>
       </c>
-      <c r="E5" s="145"/>
+      <c r="E5" s="146"/>
       <c r="F5" s="4" t="s">
         <v>432</v>
       </c>
@@ -4948,1733 +5034,1733 @@
       <c r="A6" s="75">
         <v>5</v>
       </c>
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="145"/>
+      <c r="E6" s="146"/>
       <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="75">
         <v>6</v>
       </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="150" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="151" t="s">
         <v>395</v>
       </c>
-      <c r="E7" s="150"/>
+      <c r="E7" s="151"/>
       <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="75">
         <v>7</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="150" t="s">
+      <c r="B8" s="189"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="151" t="s">
         <v>391</v>
       </c>
-      <c r="E8" s="150"/>
+      <c r="E8" s="151"/>
       <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="75">
         <v>8</v>
       </c>
-      <c r="B9" s="188"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="150" t="s">
+      <c r="B9" s="189"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="151" t="s">
         <v>392</v>
       </c>
-      <c r="E9" s="150"/>
+      <c r="E9" s="151"/>
       <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="75">
         <v>9</v>
       </c>
-      <c r="B10" s="188"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="150" t="s">
+      <c r="B10" s="189"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="151" t="s">
         <v>393</v>
       </c>
-      <c r="E10" s="150"/>
+      <c r="E10" s="151"/>
       <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="75">
         <v>10</v>
       </c>
-      <c r="B11" s="188"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="150" t="s">
+      <c r="B11" s="189"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="151" t="s">
         <v>394</v>
       </c>
-      <c r="E11" s="150"/>
+      <c r="E11" s="151"/>
       <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="75">
         <v>11</v>
       </c>
-      <c r="B12" s="179" t="s">
+      <c r="B12" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="145" t="s">
+      <c r="D12" s="146" t="s">
         <v>396</v>
       </c>
-      <c r="E12" s="145"/>
+      <c r="E12" s="146"/>
       <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="75">
         <v>12</v>
       </c>
-      <c r="B13" s="179"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="145" t="s">
+      <c r="B13" s="180"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="146" t="s">
         <v>397</v>
       </c>
-      <c r="E13" s="145"/>
+      <c r="E13" s="146"/>
       <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="75">
         <v>13</v>
       </c>
-      <c r="B14" s="179"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="145" t="s">
+      <c r="B14" s="180"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="146" t="s">
         <v>399</v>
       </c>
-      <c r="E14" s="145"/>
+      <c r="E14" s="146"/>
       <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="75">
         <v>14</v>
       </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="145" t="s">
+      <c r="B15" s="180"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="146" t="s">
         <v>398</v>
       </c>
-      <c r="E15" s="145"/>
+      <c r="E15" s="146"/>
       <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="75">
         <v>15</v>
       </c>
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="150" t="s">
+      <c r="D16" s="151" t="s">
         <v>400</v>
       </c>
-      <c r="E16" s="150"/>
+      <c r="E16" s="151"/>
       <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="75">
         <v>16</v>
       </c>
-      <c r="B17" s="179"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="150" t="s">
+      <c r="B17" s="180"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="151" t="s">
         <v>401</v>
       </c>
-      <c r="E17" s="150"/>
+      <c r="E17" s="151"/>
       <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="75">
         <v>17</v>
       </c>
-      <c r="B18" s="179"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="150" t="s">
+      <c r="B18" s="180"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="151" t="s">
         <v>404</v>
       </c>
-      <c r="E18" s="150"/>
+      <c r="E18" s="151"/>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="75">
         <v>18</v>
       </c>
-      <c r="B19" s="179"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="150" t="s">
+      <c r="B19" s="180"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="151" t="s">
         <v>402</v>
       </c>
-      <c r="E19" s="150"/>
+      <c r="E19" s="151"/>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="75">
         <v>19</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="150" t="s">
+      <c r="B20" s="180"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="151" t="s">
         <v>403</v>
       </c>
-      <c r="E20" s="150"/>
+      <c r="E20" s="151"/>
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="75">
         <v>20</v>
       </c>
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="175" t="s">
+      <c r="C21" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="145" t="s">
+      <c r="D21" s="146" t="s">
         <v>405</v>
       </c>
-      <c r="E21" s="145"/>
+      <c r="E21" s="146"/>
       <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="75">
         <v>21</v>
       </c>
-      <c r="B22" s="184"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="145" t="s">
+      <c r="B22" s="185"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="146" t="s">
         <v>406</v>
       </c>
-      <c r="E22" s="145"/>
+      <c r="E22" s="146"/>
       <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="75">
         <v>22</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="175" t="s">
+      <c r="C23" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="146" t="s">
         <v>272</v>
       </c>
-      <c r="E23" s="145"/>
+      <c r="E23" s="146"/>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="75">
         <v>23</v>
       </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="173" t="s">
+      <c r="B24" s="178"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="174" t="s">
         <v>269</v>
       </c>
-      <c r="E24" s="173"/>
+      <c r="E24" s="174"/>
       <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="75">
         <v>24</v>
       </c>
-      <c r="B25" s="177"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="173" t="s">
+      <c r="B25" s="178"/>
+      <c r="C25" s="176"/>
+      <c r="D25" s="174" t="s">
         <v>270</v>
       </c>
-      <c r="E25" s="173"/>
+      <c r="E25" s="174"/>
       <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="75">
         <v>25</v>
       </c>
-      <c r="B26" s="178"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="173" t="s">
+      <c r="B26" s="179"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="174" t="s">
         <v>429</v>
       </c>
-      <c r="E26" s="173"/>
+      <c r="E26" s="174"/>
       <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="75">
         <v>26</v>
       </c>
-      <c r="B27" s="176" t="s">
+      <c r="B27" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="175" t="s">
+      <c r="C27" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="173" t="s">
+      <c r="D27" s="174" t="s">
         <v>273</v>
       </c>
-      <c r="E27" s="173"/>
+      <c r="E27" s="174"/>
       <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="75">
         <v>27</v>
       </c>
-      <c r="B28" s="177"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="173" t="s">
+      <c r="B28" s="178"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="174" t="s">
         <v>274</v>
       </c>
-      <c r="E28" s="173"/>
+      <c r="E28" s="174"/>
       <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="75">
         <v>28</v>
       </c>
-      <c r="B29" s="177"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="173" t="s">
+      <c r="B29" s="178"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="174" t="s">
         <v>275</v>
       </c>
-      <c r="E29" s="173"/>
+      <c r="E29" s="174"/>
       <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="75">
         <v>29</v>
       </c>
-      <c r="B30" s="177"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="150" t="s">
+      <c r="B30" s="178"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="151" t="s">
         <v>276</v>
       </c>
-      <c r="E30" s="150"/>
+      <c r="E30" s="151"/>
       <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="75">
         <v>30</v>
       </c>
-      <c r="B31" s="178"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="150" t="s">
+      <c r="B31" s="179"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="151" t="s">
         <v>277</v>
       </c>
-      <c r="E31" s="150"/>
+      <c r="E31" s="151"/>
       <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="75">
         <v>31</v>
       </c>
-      <c r="B32" s="176" t="s">
+      <c r="B32" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="175" t="s">
+      <c r="C32" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="172" t="s">
+      <c r="D32" s="173" t="s">
         <v>278</v>
       </c>
-      <c r="E32" s="172"/>
+      <c r="E32" s="173"/>
       <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="75">
         <v>32</v>
       </c>
-      <c r="B33" s="177"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="172" t="s">
+      <c r="B33" s="178"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="173" t="s">
         <v>279</v>
       </c>
-      <c r="E33" s="172"/>
+      <c r="E33" s="173"/>
       <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="75">
         <v>33</v>
       </c>
-      <c r="B34" s="177"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="172" t="s">
+      <c r="B34" s="178"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="173" t="s">
         <v>280</v>
       </c>
-      <c r="E34" s="172"/>
+      <c r="E34" s="173"/>
       <c r="F34" s="40"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="75">
         <v>34</v>
       </c>
-      <c r="B35" s="177"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="172" t="s">
+      <c r="B35" s="178"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="173" t="s">
         <v>281</v>
       </c>
-      <c r="E35" s="172"/>
+      <c r="E35" s="173"/>
       <c r="F35" s="40"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="75">
         <v>35</v>
       </c>
-      <c r="B36" s="178"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="150" t="s">
+      <c r="B36" s="179"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="E36" s="150"/>
+      <c r="E36" s="151"/>
       <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="75">
         <v>36</v>
       </c>
-      <c r="B37" s="176" t="s">
+      <c r="B37" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="175" t="s">
+      <c r="C37" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="145" t="s">
+      <c r="D37" s="146" t="s">
         <v>288</v>
       </c>
-      <c r="E37" s="145"/>
+      <c r="E37" s="146"/>
       <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="75">
         <v>37</v>
       </c>
-      <c r="B38" s="177"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="173" t="s">
+      <c r="B38" s="178"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="174" t="s">
         <v>283</v>
       </c>
-      <c r="E38" s="173"/>
+      <c r="E38" s="174"/>
       <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="75">
         <v>38</v>
       </c>
-      <c r="B39" s="177"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="173" t="s">
+      <c r="B39" s="178"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="174" t="s">
         <v>284</v>
       </c>
-      <c r="E39" s="173"/>
+      <c r="E39" s="174"/>
       <c r="F39" s="40"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="75">
         <v>39</v>
       </c>
-      <c r="B40" s="177"/>
-      <c r="C40" s="175"/>
-      <c r="D40" s="173" t="s">
+      <c r="B40" s="178"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="174" t="s">
         <v>285</v>
       </c>
-      <c r="E40" s="173"/>
+      <c r="E40" s="174"/>
       <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="75">
         <v>40</v>
       </c>
-      <c r="B41" s="177"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="173" t="s">
+      <c r="B41" s="178"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="E41" s="173"/>
+      <c r="E41" s="174"/>
       <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="75">
         <v>41</v>
       </c>
-      <c r="B42" s="178"/>
-      <c r="C42" s="175"/>
-      <c r="D42" s="173" t="s">
+      <c r="B42" s="179"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="174" t="s">
         <v>287</v>
       </c>
-      <c r="E42" s="173"/>
+      <c r="E42" s="174"/>
       <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="75">
         <v>42</v>
       </c>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="175" t="s">
+      <c r="C43" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="145" t="s">
+      <c r="D43" s="146" t="s">
         <v>295</v>
       </c>
-      <c r="E43" s="145"/>
+      <c r="E43" s="146"/>
       <c r="F43" s="40"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="75">
         <v>43</v>
       </c>
-      <c r="B44" s="177"/>
-      <c r="C44" s="175"/>
-      <c r="D44" s="173" t="s">
+      <c r="B44" s="178"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="174" t="s">
         <v>292</v>
       </c>
-      <c r="E44" s="173"/>
+      <c r="E44" s="174"/>
       <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="75">
         <v>44</v>
       </c>
-      <c r="B45" s="177"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="173" t="s">
+      <c r="B45" s="178"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="174" t="s">
         <v>293</v>
       </c>
-      <c r="E45" s="173"/>
+      <c r="E45" s="174"/>
       <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="75">
         <v>45</v>
       </c>
-      <c r="B46" s="178"/>
-      <c r="C46" s="175"/>
-      <c r="D46" s="173" t="s">
+      <c r="B46" s="179"/>
+      <c r="C46" s="176"/>
+      <c r="D46" s="174" t="s">
         <v>294</v>
       </c>
-      <c r="E46" s="173"/>
+      <c r="E46" s="174"/>
       <c r="F46" s="40"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="75">
         <v>46</v>
       </c>
-      <c r="B47" s="179" t="s">
+      <c r="B47" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="175" t="s">
+      <c r="C47" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="173" t="s">
+      <c r="D47" s="174" t="s">
         <v>289</v>
       </c>
-      <c r="E47" s="173"/>
+      <c r="E47" s="174"/>
       <c r="F47" s="40"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="75">
         <v>47</v>
       </c>
-      <c r="B48" s="179"/>
-      <c r="C48" s="175"/>
-      <c r="D48" s="173" t="s">
+      <c r="B48" s="180"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="174" t="s">
         <v>291</v>
       </c>
-      <c r="E48" s="173"/>
+      <c r="E48" s="174"/>
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="75">
         <v>48</v>
       </c>
-      <c r="B49" s="179"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="173" t="s">
+      <c r="B49" s="180"/>
+      <c r="C49" s="176"/>
+      <c r="D49" s="174" t="s">
         <v>290</v>
       </c>
-      <c r="E49" s="173"/>
+      <c r="E49" s="174"/>
       <c r="F49" s="40"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="75">
         <v>49</v>
       </c>
-      <c r="B50" s="176" t="s">
+      <c r="B50" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="180" t="s">
+      <c r="C50" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="173" t="s">
+      <c r="D50" s="174" t="s">
         <v>296</v>
       </c>
-      <c r="E50" s="173"/>
+      <c r="E50" s="174"/>
       <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="75">
         <v>50</v>
       </c>
-      <c r="B51" s="177"/>
-      <c r="C51" s="180"/>
-      <c r="D51" s="173" t="s">
+      <c r="B51" s="178"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="174" t="s">
         <v>297</v>
       </c>
-      <c r="E51" s="173"/>
+      <c r="E51" s="174"/>
       <c r="F51" s="40"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="75">
         <v>51</v>
       </c>
-      <c r="B52" s="177"/>
-      <c r="C52" s="180"/>
-      <c r="D52" s="173" t="s">
+      <c r="B52" s="178"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="174" t="s">
         <v>298</v>
       </c>
-      <c r="E52" s="173"/>
+      <c r="E52" s="174"/>
       <c r="F52" s="40"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="75">
         <v>52</v>
       </c>
-      <c r="B53" s="177"/>
-      <c r="C53" s="180"/>
-      <c r="D53" s="173" t="s">
+      <c r="B53" s="178"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="174" t="s">
         <v>309</v>
       </c>
-      <c r="E53" s="173"/>
+      <c r="E53" s="174"/>
       <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="75">
         <v>53</v>
       </c>
-      <c r="B54" s="177"/>
-      <c r="C54" s="180"/>
-      <c r="D54" s="173" t="s">
+      <c r="B54" s="178"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="174" t="s">
         <v>299</v>
       </c>
-      <c r="E54" s="173"/>
+      <c r="E54" s="174"/>
       <c r="F54" s="40"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="75">
         <v>54</v>
       </c>
-      <c r="B55" s="178"/>
-      <c r="C55" s="180"/>
-      <c r="D55" s="173" t="s">
+      <c r="B55" s="179"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="174" t="s">
         <v>300</v>
       </c>
-      <c r="E55" s="173"/>
+      <c r="E55" s="174"/>
       <c r="F55" s="40"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="75">
         <v>55</v>
       </c>
-      <c r="B56" s="176" t="s">
+      <c r="B56" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="175" t="s">
+      <c r="C56" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="173" t="s">
+      <c r="D56" s="174" t="s">
         <v>301</v>
       </c>
-      <c r="E56" s="173"/>
+      <c r="E56" s="174"/>
       <c r="F56" s="40"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="75">
         <v>56</v>
       </c>
-      <c r="B57" s="178"/>
-      <c r="C57" s="175"/>
-      <c r="D57" s="145" t="s">
+      <c r="B57" s="179"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="146" t="s">
         <v>310</v>
       </c>
-      <c r="E57" s="145"/>
+      <c r="E57" s="146"/>
       <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="75">
         <v>57</v>
       </c>
-      <c r="B58" s="176" t="s">
+      <c r="B58" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="175" t="s">
+      <c r="C58" s="176" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="145" t="s">
+      <c r="D58" s="146" t="s">
         <v>302</v>
       </c>
-      <c r="E58" s="145"/>
+      <c r="E58" s="146"/>
       <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="75">
         <v>58</v>
       </c>
-      <c r="B59" s="177"/>
-      <c r="C59" s="175"/>
-      <c r="D59" s="145" t="s">
+      <c r="B59" s="178"/>
+      <c r="C59" s="176"/>
+      <c r="D59" s="146" t="s">
         <v>303</v>
       </c>
-      <c r="E59" s="145"/>
+      <c r="E59" s="146"/>
       <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="75">
         <v>59</v>
       </c>
-      <c r="B60" s="177"/>
-      <c r="C60" s="175"/>
-      <c r="D60" s="145" t="s">
+      <c r="B60" s="178"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="146" t="s">
         <v>304</v>
       </c>
-      <c r="E60" s="145"/>
+      <c r="E60" s="146"/>
       <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="75">
         <v>60</v>
       </c>
-      <c r="B61" s="177"/>
-      <c r="C61" s="175"/>
-      <c r="D61" s="150" t="s">
+      <c r="B61" s="178"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="151" t="s">
         <v>308</v>
       </c>
-      <c r="E61" s="150"/>
+      <c r="E61" s="151"/>
       <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="75">
         <v>61</v>
       </c>
-      <c r="B62" s="177"/>
-      <c r="C62" s="175"/>
-      <c r="D62" s="145" t="s">
+      <c r="B62" s="178"/>
+      <c r="C62" s="176"/>
+      <c r="D62" s="146" t="s">
         <v>305</v>
       </c>
-      <c r="E62" s="145"/>
+      <c r="E62" s="146"/>
       <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="75">
         <v>62</v>
       </c>
-      <c r="B63" s="177"/>
-      <c r="C63" s="175"/>
-      <c r="D63" s="145" t="s">
+      <c r="B63" s="178"/>
+      <c r="C63" s="176"/>
+      <c r="D63" s="146" t="s">
         <v>306</v>
       </c>
-      <c r="E63" s="145"/>
+      <c r="E63" s="146"/>
       <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="75">
         <v>63</v>
       </c>
-      <c r="B64" s="177"/>
-      <c r="C64" s="175"/>
-      <c r="D64" s="145" t="s">
+      <c r="B64" s="178"/>
+      <c r="C64" s="176"/>
+      <c r="D64" s="146" t="s">
         <v>311</v>
       </c>
-      <c r="E64" s="145"/>
+      <c r="E64" s="146"/>
       <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="75">
         <v>64</v>
       </c>
-      <c r="B65" s="178"/>
-      <c r="C65" s="175"/>
-      <c r="D65" s="145" t="s">
+      <c r="B65" s="179"/>
+      <c r="C65" s="176"/>
+      <c r="D65" s="146" t="s">
         <v>307</v>
       </c>
-      <c r="E65" s="145"/>
+      <c r="E65" s="146"/>
       <c r="F65" s="40"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="75">
         <v>65</v>
       </c>
-      <c r="B66" s="176" t="s">
+      <c r="B66" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="180" t="s">
+      <c r="C66" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="172" t="s">
+      <c r="D66" s="173" t="s">
         <v>320</v>
       </c>
-      <c r="E66" s="172"/>
+      <c r="E66" s="173"/>
       <c r="F66" s="40"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="75">
         <v>66</v>
       </c>
-      <c r="B67" s="177"/>
-      <c r="C67" s="180"/>
-      <c r="D67" s="173" t="s">
+      <c r="B67" s="178"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="174" t="s">
         <v>312</v>
       </c>
-      <c r="E67" s="173"/>
+      <c r="E67" s="174"/>
       <c r="F67" s="40"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="75">
         <v>67</v>
       </c>
-      <c r="B68" s="177"/>
-      <c r="C68" s="180"/>
-      <c r="D68" s="173" t="s">
+      <c r="B68" s="178"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="174" t="s">
         <v>319</v>
       </c>
-      <c r="E68" s="173"/>
+      <c r="E68" s="174"/>
       <c r="F68" s="40"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="75">
         <v>68</v>
       </c>
-      <c r="B69" s="177"/>
-      <c r="C69" s="180"/>
-      <c r="D69" s="173" t="s">
+      <c r="B69" s="178"/>
+      <c r="C69" s="181"/>
+      <c r="D69" s="174" t="s">
         <v>313</v>
       </c>
-      <c r="E69" s="173"/>
+      <c r="E69" s="174"/>
       <c r="F69" s="40"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="75">
         <v>69</v>
       </c>
-      <c r="B70" s="177"/>
-      <c r="C70" s="180"/>
-      <c r="D70" s="173" t="s">
+      <c r="B70" s="178"/>
+      <c r="C70" s="181"/>
+      <c r="D70" s="174" t="s">
         <v>314</v>
       </c>
-      <c r="E70" s="173"/>
+      <c r="E70" s="174"/>
       <c r="F70" s="40"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="75">
         <v>70</v>
       </c>
-      <c r="B71" s="177"/>
-      <c r="C71" s="180"/>
-      <c r="D71" s="173" t="s">
+      <c r="B71" s="178"/>
+      <c r="C71" s="181"/>
+      <c r="D71" s="174" t="s">
         <v>315</v>
       </c>
-      <c r="E71" s="173"/>
+      <c r="E71" s="174"/>
       <c r="F71" s="40"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="75">
         <v>71</v>
       </c>
-      <c r="B72" s="177"/>
-      <c r="C72" s="180"/>
-      <c r="D72" s="173" t="s">
+      <c r="B72" s="178"/>
+      <c r="C72" s="181"/>
+      <c r="D72" s="174" t="s">
         <v>316</v>
       </c>
-      <c r="E72" s="173"/>
+      <c r="E72" s="174"/>
       <c r="F72" s="40"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="75">
         <v>72</v>
       </c>
-      <c r="B73" s="177"/>
-      <c r="C73" s="180"/>
-      <c r="D73" s="173" t="s">
+      <c r="B73" s="178"/>
+      <c r="C73" s="181"/>
+      <c r="D73" s="174" t="s">
         <v>317</v>
       </c>
-      <c r="E73" s="173"/>
+      <c r="E73" s="174"/>
       <c r="F73" s="40"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="75">
         <v>73</v>
       </c>
-      <c r="B74" s="178"/>
-      <c r="C74" s="180"/>
-      <c r="D74" s="173" t="s">
+      <c r="B74" s="179"/>
+      <c r="C74" s="181"/>
+      <c r="D74" s="174" t="s">
         <v>318</v>
       </c>
-      <c r="E74" s="173"/>
+      <c r="E74" s="174"/>
       <c r="F74" s="40"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="75">
         <v>74</v>
       </c>
-      <c r="B75" s="176" t="s">
+      <c r="B75" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="175" t="s">
+      <c r="C75" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="172" t="s">
+      <c r="D75" s="173" t="s">
         <v>330</v>
       </c>
-      <c r="E75" s="172"/>
+      <c r="E75" s="173"/>
       <c r="F75" s="8"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="75">
         <v>75</v>
       </c>
-      <c r="B76" s="177"/>
-      <c r="C76" s="175"/>
-      <c r="D76" s="173" t="s">
+      <c r="B76" s="178"/>
+      <c r="C76" s="176"/>
+      <c r="D76" s="174" t="s">
         <v>321</v>
       </c>
-      <c r="E76" s="173"/>
+      <c r="E76" s="174"/>
       <c r="F76" s="40"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="75">
         <v>76</v>
       </c>
-      <c r="B77" s="177"/>
-      <c r="C77" s="175"/>
-      <c r="D77" s="173" t="s">
+      <c r="B77" s="178"/>
+      <c r="C77" s="176"/>
+      <c r="D77" s="174" t="s">
         <v>322</v>
       </c>
-      <c r="E77" s="173"/>
+      <c r="E77" s="174"/>
       <c r="F77" s="40"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="75">
         <v>77</v>
       </c>
-      <c r="B78" s="177"/>
-      <c r="C78" s="175"/>
-      <c r="D78" s="173" t="s">
+      <c r="B78" s="178"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="174" t="s">
         <v>323</v>
       </c>
-      <c r="E78" s="173"/>
+      <c r="E78" s="174"/>
       <c r="F78" s="40"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="75">
         <v>78</v>
       </c>
-      <c r="B79" s="177"/>
-      <c r="C79" s="175"/>
-      <c r="D79" s="173" t="s">
+      <c r="B79" s="178"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="174" t="s">
         <v>324</v>
       </c>
-      <c r="E79" s="173"/>
+      <c r="E79" s="174"/>
       <c r="F79" s="40"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="75">
         <v>79</v>
       </c>
-      <c r="B80" s="177"/>
-      <c r="C80" s="175"/>
-      <c r="D80" s="173" t="s">
+      <c r="B80" s="178"/>
+      <c r="C80" s="176"/>
+      <c r="D80" s="174" t="s">
         <v>325</v>
       </c>
-      <c r="E80" s="173"/>
+      <c r="E80" s="174"/>
       <c r="F80" s="40"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="75">
         <v>80</v>
       </c>
-      <c r="B81" s="177"/>
-      <c r="C81" s="175"/>
-      <c r="D81" s="173" t="s">
+      <c r="B81" s="178"/>
+      <c r="C81" s="176"/>
+      <c r="D81" s="174" t="s">
         <v>326</v>
       </c>
-      <c r="E81" s="173"/>
+      <c r="E81" s="174"/>
       <c r="F81" s="40"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="75">
         <v>81</v>
       </c>
-      <c r="B82" s="177"/>
-      <c r="C82" s="175"/>
-      <c r="D82" s="173" t="s">
+      <c r="B82" s="178"/>
+      <c r="C82" s="176"/>
+      <c r="D82" s="174" t="s">
         <v>327</v>
       </c>
-      <c r="E82" s="173"/>
+      <c r="E82" s="174"/>
       <c r="F82" s="40"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="75">
         <v>82</v>
       </c>
-      <c r="B83" s="177"/>
-      <c r="C83" s="175"/>
-      <c r="D83" s="173" t="s">
+      <c r="B83" s="178"/>
+      <c r="C83" s="176"/>
+      <c r="D83" s="174" t="s">
         <v>328</v>
       </c>
-      <c r="E83" s="173"/>
+      <c r="E83" s="174"/>
       <c r="F83" s="40"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="75">
         <v>83</v>
       </c>
-      <c r="B84" s="178"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="173" t="s">
+      <c r="B84" s="179"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="174" t="s">
         <v>329</v>
       </c>
-      <c r="E84" s="173"/>
+      <c r="E84" s="174"/>
       <c r="F84" s="40"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="75">
         <v>84</v>
       </c>
-      <c r="B85" s="179" t="s">
+      <c r="B85" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="175" t="s">
+      <c r="C85" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="173" t="s">
+      <c r="D85" s="174" t="s">
         <v>331</v>
       </c>
-      <c r="E85" s="173"/>
+      <c r="E85" s="174"/>
       <c r="F85" s="40"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="75">
         <v>85</v>
       </c>
-      <c r="B86" s="179"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="173" t="s">
+      <c r="B86" s="180"/>
+      <c r="C86" s="176"/>
+      <c r="D86" s="174" t="s">
         <v>332</v>
       </c>
-      <c r="E86" s="173"/>
+      <c r="E86" s="174"/>
       <c r="F86" s="40"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="75">
         <v>86</v>
       </c>
-      <c r="B87" s="179"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="168" t="s">
+      <c r="B87" s="180"/>
+      <c r="C87" s="176"/>
+      <c r="D87" s="169" t="s">
         <v>339</v>
       </c>
-      <c r="E87" s="168"/>
+      <c r="E87" s="169"/>
       <c r="F87" s="8"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="75">
         <v>87</v>
       </c>
-      <c r="B88" s="179"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="173" t="s">
+      <c r="B88" s="180"/>
+      <c r="C88" s="176"/>
+      <c r="D88" s="174" t="s">
         <v>333</v>
       </c>
-      <c r="E88" s="173"/>
+      <c r="E88" s="174"/>
       <c r="F88" s="40"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="75">
         <v>88</v>
       </c>
-      <c r="B89" s="179"/>
-      <c r="C89" s="175"/>
-      <c r="D89" s="173" t="s">
+      <c r="B89" s="180"/>
+      <c r="C89" s="176"/>
+      <c r="D89" s="174" t="s">
         <v>334</v>
       </c>
-      <c r="E89" s="173"/>
+      <c r="E89" s="174"/>
       <c r="F89" s="40"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="75">
         <v>89</v>
       </c>
-      <c r="B90" s="179"/>
-      <c r="C90" s="175"/>
-      <c r="D90" s="173" t="s">
+      <c r="B90" s="180"/>
+      <c r="C90" s="176"/>
+      <c r="D90" s="174" t="s">
         <v>335</v>
       </c>
-      <c r="E90" s="173"/>
+      <c r="E90" s="174"/>
       <c r="F90" s="40"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="75">
         <v>90</v>
       </c>
-      <c r="B91" s="179"/>
-      <c r="C91" s="175"/>
-      <c r="D91" s="173" t="s">
+      <c r="B91" s="180"/>
+      <c r="C91" s="176"/>
+      <c r="D91" s="174" t="s">
         <v>338</v>
       </c>
-      <c r="E91" s="173"/>
+      <c r="E91" s="174"/>
       <c r="F91" s="40"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="75">
         <v>91</v>
       </c>
-      <c r="B92" s="179"/>
-      <c r="C92" s="175"/>
-      <c r="D92" s="173" t="s">
+      <c r="B92" s="180"/>
+      <c r="C92" s="176"/>
+      <c r="D92" s="174" t="s">
         <v>336</v>
       </c>
-      <c r="E92" s="173"/>
+      <c r="E92" s="174"/>
       <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="75">
         <v>92</v>
       </c>
-      <c r="B93" s="179"/>
-      <c r="C93" s="175"/>
-      <c r="D93" s="173" t="s">
+      <c r="B93" s="180"/>
+      <c r="C93" s="176"/>
+      <c r="D93" s="174" t="s">
         <v>337</v>
       </c>
-      <c r="E93" s="173"/>
+      <c r="E93" s="174"/>
       <c r="F93" s="40"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="75">
         <v>93</v>
       </c>
-      <c r="B94" s="176" t="s">
+      <c r="B94" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="C94" s="175" t="s">
+      <c r="C94" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="173" t="s">
+      <c r="D94" s="174" t="s">
         <v>344</v>
       </c>
-      <c r="E94" s="173"/>
+      <c r="E94" s="174"/>
       <c r="F94" s="8"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="75">
         <v>94</v>
       </c>
-      <c r="B95" s="177"/>
-      <c r="C95" s="175"/>
-      <c r="D95" s="173" t="s">
+      <c r="B95" s="178"/>
+      <c r="C95" s="176"/>
+      <c r="D95" s="174" t="s">
         <v>340</v>
       </c>
-      <c r="E95" s="173"/>
+      <c r="E95" s="174"/>
       <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="75">
         <v>95</v>
       </c>
-      <c r="B96" s="177"/>
-      <c r="C96" s="175"/>
-      <c r="D96" s="173" t="s">
+      <c r="B96" s="178"/>
+      <c r="C96" s="176"/>
+      <c r="D96" s="174" t="s">
         <v>341</v>
       </c>
-      <c r="E96" s="173"/>
+      <c r="E96" s="174"/>
       <c r="F96" s="40"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="75">
         <v>96</v>
       </c>
-      <c r="B97" s="177"/>
-      <c r="C97" s="175"/>
-      <c r="D97" s="173" t="s">
+      <c r="B97" s="178"/>
+      <c r="C97" s="176"/>
+      <c r="D97" s="174" t="s">
         <v>342</v>
       </c>
-      <c r="E97" s="173"/>
+      <c r="E97" s="174"/>
       <c r="F97" s="40"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="75">
         <v>97</v>
       </c>
-      <c r="B98" s="178"/>
-      <c r="C98" s="175"/>
-      <c r="D98" s="173" t="s">
+      <c r="B98" s="179"/>
+      <c r="C98" s="176"/>
+      <c r="D98" s="174" t="s">
         <v>343</v>
       </c>
-      <c r="E98" s="173"/>
+      <c r="E98" s="174"/>
       <c r="F98" s="40"/>
     </row>
     <row r="99" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="75">
         <v>98</v>
       </c>
-      <c r="B99" s="176" t="s">
+      <c r="B99" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="C99" s="175" t="s">
+      <c r="C99" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="174" t="s">
+      <c r="D99" s="175" t="s">
         <v>350</v>
       </c>
-      <c r="E99" s="174"/>
+      <c r="E99" s="175"/>
       <c r="F99" s="40"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="75">
         <v>99</v>
       </c>
-      <c r="B100" s="177"/>
-      <c r="C100" s="175"/>
-      <c r="D100" s="145" t="s">
+      <c r="B100" s="178"/>
+      <c r="C100" s="176"/>
+      <c r="D100" s="146" t="s">
         <v>345</v>
       </c>
-      <c r="E100" s="145"/>
+      <c r="E100" s="146"/>
       <c r="F100" s="40"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="75">
         <v>100</v>
       </c>
-      <c r="B101" s="177"/>
-      <c r="C101" s="175"/>
-      <c r="D101" s="145" t="s">
+      <c r="B101" s="178"/>
+      <c r="C101" s="176"/>
+      <c r="D101" s="146" t="s">
         <v>346</v>
       </c>
-      <c r="E101" s="145"/>
+      <c r="E101" s="146"/>
       <c r="F101" s="40"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="75">
         <v>101</v>
       </c>
-      <c r="B102" s="177"/>
-      <c r="C102" s="175"/>
-      <c r="D102" s="145" t="s">
+      <c r="B102" s="178"/>
+      <c r="C102" s="176"/>
+      <c r="D102" s="146" t="s">
         <v>347</v>
       </c>
-      <c r="E102" s="145"/>
+      <c r="E102" s="146"/>
       <c r="F102" s="40"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="75">
         <v>102</v>
       </c>
-      <c r="B103" s="177"/>
-      <c r="C103" s="175"/>
-      <c r="D103" s="145" t="s">
+      <c r="B103" s="178"/>
+      <c r="C103" s="176"/>
+      <c r="D103" s="146" t="s">
         <v>348</v>
       </c>
-      <c r="E103" s="145"/>
+      <c r="E103" s="146"/>
       <c r="F103" s="40"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="75">
         <v>103</v>
       </c>
-      <c r="B104" s="178"/>
-      <c r="C104" s="175"/>
-      <c r="D104" s="145" t="s">
+      <c r="B104" s="179"/>
+      <c r="C104" s="176"/>
+      <c r="D104" s="146" t="s">
         <v>349</v>
       </c>
-      <c r="E104" s="145"/>
+      <c r="E104" s="146"/>
       <c r="F104" s="40"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="75">
         <v>104</v>
       </c>
-      <c r="B105" s="179" t="s">
+      <c r="B105" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="C105" s="181" t="s">
+      <c r="C105" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="D105" s="173" t="s">
+      <c r="D105" s="174" t="s">
         <v>351</v>
       </c>
-      <c r="E105" s="173"/>
+      <c r="E105" s="174"/>
       <c r="F105" s="40"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="75">
         <v>105</v>
       </c>
-      <c r="B106" s="179"/>
-      <c r="C106" s="181"/>
-      <c r="D106" s="173" t="s">
+      <c r="B106" s="180"/>
+      <c r="C106" s="182"/>
+      <c r="D106" s="174" t="s">
         <v>353</v>
       </c>
-      <c r="E106" s="173"/>
+      <c r="E106" s="174"/>
       <c r="F106" s="8"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="75">
         <v>106</v>
       </c>
-      <c r="B107" s="179"/>
-      <c r="C107" s="181"/>
-      <c r="D107" s="173" t="s">
+      <c r="B107" s="180"/>
+      <c r="C107" s="182"/>
+      <c r="D107" s="174" t="s">
         <v>352</v>
       </c>
-      <c r="E107" s="173"/>
+      <c r="E107" s="174"/>
       <c r="F107" s="40"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="75">
         <v>107</v>
       </c>
-      <c r="B108" s="176" t="s">
+      <c r="B108" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="C108" s="182" t="s">
+      <c r="C108" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="D108" s="173" t="s">
+      <c r="D108" s="174" t="s">
         <v>354</v>
       </c>
-      <c r="E108" s="173"/>
+      <c r="E108" s="174"/>
       <c r="F108" s="40"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="75">
         <v>108</v>
       </c>
-      <c r="B109" s="177"/>
-      <c r="C109" s="182"/>
-      <c r="D109" s="173" t="s">
+      <c r="B109" s="178"/>
+      <c r="C109" s="183"/>
+      <c r="D109" s="174" t="s">
         <v>355</v>
       </c>
-      <c r="E109" s="173"/>
+      <c r="E109" s="174"/>
       <c r="F109" s="40"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="75">
         <v>109</v>
       </c>
-      <c r="B110" s="177"/>
-      <c r="C110" s="182"/>
-      <c r="D110" s="168" t="s">
+      <c r="B110" s="178"/>
+      <c r="C110" s="183"/>
+      <c r="D110" s="169" t="s">
         <v>358</v>
       </c>
-      <c r="E110" s="168"/>
+      <c r="E110" s="169"/>
       <c r="F110" s="8"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="75">
         <v>110</v>
       </c>
-      <c r="B111" s="177"/>
-      <c r="C111" s="182"/>
-      <c r="D111" s="173" t="s">
+      <c r="B111" s="178"/>
+      <c r="C111" s="183"/>
+      <c r="D111" s="174" t="s">
         <v>356</v>
       </c>
-      <c r="E111" s="173"/>
+      <c r="E111" s="174"/>
       <c r="F111" s="40"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="75">
         <v>111</v>
       </c>
-      <c r="B112" s="178"/>
-      <c r="C112" s="182"/>
-      <c r="D112" s="173" t="s">
+      <c r="B112" s="179"/>
+      <c r="C112" s="183"/>
+      <c r="D112" s="174" t="s">
         <v>357</v>
       </c>
-      <c r="E112" s="173"/>
+      <c r="E112" s="174"/>
       <c r="F112" s="40"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="75">
         <v>112</v>
       </c>
-      <c r="B113" s="176" t="s">
+      <c r="B113" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="181" t="s">
+      <c r="C113" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="D113" s="173" t="s">
+      <c r="D113" s="174" t="s">
         <v>359</v>
       </c>
-      <c r="E113" s="173"/>
+      <c r="E113" s="174"/>
       <c r="F113" s="40"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="75">
         <v>113</v>
       </c>
-      <c r="B114" s="177"/>
-      <c r="C114" s="181"/>
-      <c r="D114" s="168" t="s">
+      <c r="B114" s="178"/>
+      <c r="C114" s="182"/>
+      <c r="D114" s="169" t="s">
         <v>364</v>
       </c>
-      <c r="E114" s="168"/>
+      <c r="E114" s="169"/>
       <c r="F114" s="8"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="75">
         <v>114</v>
       </c>
-      <c r="B115" s="177"/>
-      <c r="C115" s="181"/>
-      <c r="D115" s="173" t="s">
+      <c r="B115" s="178"/>
+      <c r="C115" s="182"/>
+      <c r="D115" s="174" t="s">
         <v>360</v>
       </c>
-      <c r="E115" s="173"/>
+      <c r="E115" s="174"/>
       <c r="F115" s="40"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="75">
         <v>115</v>
       </c>
-      <c r="B116" s="177"/>
-      <c r="C116" s="181"/>
-      <c r="D116" s="173" t="s">
+      <c r="B116" s="178"/>
+      <c r="C116" s="182"/>
+      <c r="D116" s="174" t="s">
         <v>361</v>
       </c>
-      <c r="E116" s="173"/>
+      <c r="E116" s="174"/>
       <c r="F116" s="40"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="75">
         <v>116</v>
       </c>
-      <c r="B117" s="177"/>
-      <c r="C117" s="181"/>
-      <c r="D117" s="173" t="s">
+      <c r="B117" s="178"/>
+      <c r="C117" s="182"/>
+      <c r="D117" s="174" t="s">
         <v>362</v>
       </c>
-      <c r="E117" s="173"/>
+      <c r="E117" s="174"/>
       <c r="F117" s="40"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="75">
         <v>117</v>
       </c>
-      <c r="B118" s="178"/>
-      <c r="C118" s="181"/>
-      <c r="D118" s="173" t="s">
+      <c r="B118" s="179"/>
+      <c r="C118" s="182"/>
+      <c r="D118" s="174" t="s">
         <v>363</v>
       </c>
-      <c r="E118" s="173"/>
+      <c r="E118" s="174"/>
       <c r="F118" s="40"/>
     </row>
     <row r="119" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="75">
         <v>118</v>
       </c>
-      <c r="B119" s="179" t="s">
+      <c r="B119" s="180" t="s">
         <v>77</v>
       </c>
-      <c r="C119" s="181" t="s">
+      <c r="C119" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="D119" s="174" t="s">
+      <c r="D119" s="175" t="s">
         <v>372</v>
       </c>
-      <c r="E119" s="174"/>
+      <c r="E119" s="175"/>
       <c r="F119" s="40"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="75">
         <v>119</v>
       </c>
-      <c r="B120" s="179"/>
-      <c r="C120" s="181"/>
-      <c r="D120" s="145" t="s">
+      <c r="B120" s="180"/>
+      <c r="C120" s="182"/>
+      <c r="D120" s="146" t="s">
         <v>365</v>
       </c>
-      <c r="E120" s="145"/>
+      <c r="E120" s="146"/>
       <c r="F120" s="40"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="75">
         <v>120</v>
       </c>
-      <c r="B121" s="179"/>
-      <c r="C121" s="181"/>
-      <c r="D121" s="145" t="s">
+      <c r="B121" s="180"/>
+      <c r="C121" s="182"/>
+      <c r="D121" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E121" s="145"/>
+      <c r="E121" s="146"/>
       <c r="F121" s="40"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="75">
         <v>121</v>
       </c>
-      <c r="B122" s="179"/>
-      <c r="C122" s="181"/>
-      <c r="D122" s="145" t="s">
+      <c r="B122" s="180"/>
+      <c r="C122" s="182"/>
+      <c r="D122" s="146" t="s">
         <v>367</v>
       </c>
-      <c r="E122" s="145"/>
+      <c r="E122" s="146"/>
       <c r="F122" s="40"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="75">
         <v>122</v>
       </c>
-      <c r="B123" s="179"/>
-      <c r="C123" s="181"/>
-      <c r="D123" s="145" t="s">
+      <c r="B123" s="180"/>
+      <c r="C123" s="182"/>
+      <c r="D123" s="146" t="s">
         <v>368</v>
       </c>
-      <c r="E123" s="145"/>
+      <c r="E123" s="146"/>
       <c r="F123" s="40"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="75">
         <v>123</v>
       </c>
-      <c r="B124" s="179"/>
-      <c r="C124" s="181"/>
-      <c r="D124" s="145" t="s">
+      <c r="B124" s="180"/>
+      <c r="C124" s="182"/>
+      <c r="D124" s="146" t="s">
         <v>369</v>
       </c>
-      <c r="E124" s="145"/>
+      <c r="E124" s="146"/>
       <c r="F124" s="40"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="75">
         <v>124</v>
       </c>
-      <c r="B125" s="179"/>
-      <c r="C125" s="181"/>
-      <c r="D125" s="145" t="s">
+      <c r="B125" s="180"/>
+      <c r="C125" s="182"/>
+      <c r="D125" s="146" t="s">
         <v>370</v>
       </c>
-      <c r="E125" s="145"/>
+      <c r="E125" s="146"/>
       <c r="F125" s="40"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="75">
         <v>125</v>
       </c>
-      <c r="B126" s="179"/>
-      <c r="C126" s="181"/>
-      <c r="D126" s="145" t="s">
+      <c r="B126" s="180"/>
+      <c r="C126" s="182"/>
+      <c r="D126" s="146" t="s">
         <v>371</v>
       </c>
-      <c r="E126" s="145"/>
+      <c r="E126" s="146"/>
       <c r="F126" s="40"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="75">
         <v>126</v>
       </c>
-      <c r="B127" s="176" t="s">
+      <c r="B127" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="C127" s="181" t="s">
+      <c r="C127" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="D127" s="174" t="s">
+      <c r="D127" s="175" t="s">
         <v>382</v>
       </c>
-      <c r="E127" s="174"/>
+      <c r="E127" s="175"/>
       <c r="F127" s="40"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="75">
         <v>127</v>
       </c>
-      <c r="B128" s="177"/>
-      <c r="C128" s="181"/>
-      <c r="D128" s="145" t="s">
+      <c r="B128" s="178"/>
+      <c r="C128" s="182"/>
+      <c r="D128" s="146" t="s">
         <v>364</v>
       </c>
-      <c r="E128" s="145"/>
+      <c r="E128" s="146"/>
       <c r="F128" s="40"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="75">
         <v>128</v>
       </c>
-      <c r="B129" s="177"/>
-      <c r="C129" s="181"/>
-      <c r="D129" s="145" t="s">
+      <c r="B129" s="178"/>
+      <c r="C129" s="182"/>
+      <c r="D129" s="146" t="s">
         <v>373</v>
       </c>
-      <c r="E129" s="145"/>
+      <c r="E129" s="146"/>
       <c r="F129" s="40"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="75">
         <v>129</v>
       </c>
-      <c r="B130" s="177"/>
-      <c r="C130" s="181"/>
-      <c r="D130" s="145" t="s">
+      <c r="B130" s="178"/>
+      <c r="C130" s="182"/>
+      <c r="D130" s="146" t="s">
         <v>374</v>
       </c>
-      <c r="E130" s="145"/>
+      <c r="E130" s="146"/>
       <c r="F130" s="40"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="75">
         <v>130</v>
       </c>
-      <c r="B131" s="177"/>
-      <c r="C131" s="181"/>
-      <c r="D131" s="145" t="s">
+      <c r="B131" s="178"/>
+      <c r="C131" s="182"/>
+      <c r="D131" s="146" t="s">
         <v>375</v>
       </c>
-      <c r="E131" s="145"/>
+      <c r="E131" s="146"/>
       <c r="F131" s="40"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="75">
         <v>131</v>
       </c>
-      <c r="B132" s="177"/>
-      <c r="C132" s="181"/>
-      <c r="D132" s="145" t="s">
+      <c r="B132" s="178"/>
+      <c r="C132" s="182"/>
+      <c r="D132" s="146" t="s">
         <v>376</v>
       </c>
-      <c r="E132" s="145"/>
+      <c r="E132" s="146"/>
       <c r="F132" s="40"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="75">
         <v>132</v>
       </c>
-      <c r="B133" s="177"/>
-      <c r="C133" s="181"/>
-      <c r="D133" s="145" t="s">
+      <c r="B133" s="178"/>
+      <c r="C133" s="182"/>
+      <c r="D133" s="146" t="s">
         <v>377</v>
       </c>
-      <c r="E133" s="145"/>
+      <c r="E133" s="146"/>
       <c r="F133" s="40"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="75">
         <v>133</v>
       </c>
-      <c r="B134" s="177"/>
-      <c r="C134" s="181"/>
-      <c r="D134" s="145" t="s">
+      <c r="B134" s="178"/>
+      <c r="C134" s="182"/>
+      <c r="D134" s="146" t="s">
         <v>378</v>
       </c>
-      <c r="E134" s="145"/>
+      <c r="E134" s="146"/>
       <c r="F134" s="40"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="75">
         <v>134</v>
       </c>
-      <c r="B135" s="177"/>
-      <c r="C135" s="181"/>
-      <c r="D135" s="145" t="s">
+      <c r="B135" s="178"/>
+      <c r="C135" s="182"/>
+      <c r="D135" s="146" t="s">
         <v>379</v>
       </c>
-      <c r="E135" s="145"/>
+      <c r="E135" s="146"/>
       <c r="F135" s="40"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="75">
         <v>135</v>
       </c>
-      <c r="B136" s="177"/>
-      <c r="C136" s="181"/>
-      <c r="D136" s="145" t="s">
+      <c r="B136" s="178"/>
+      <c r="C136" s="182"/>
+      <c r="D136" s="146" t="s">
         <v>380</v>
       </c>
-      <c r="E136" s="145"/>
+      <c r="E136" s="146"/>
       <c r="F136" s="40"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="75">
         <v>136</v>
       </c>
-      <c r="B137" s="178"/>
-      <c r="C137" s="181"/>
-      <c r="D137" s="145" t="s">
+      <c r="B137" s="179"/>
+      <c r="C137" s="182"/>
+      <c r="D137" s="146" t="s">
         <v>381</v>
       </c>
-      <c r="E137" s="145"/>
+      <c r="E137" s="146"/>
       <c r="F137" s="40"/>
     </row>
     <row r="138" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="75">
         <v>137</v>
       </c>
-      <c r="B138" s="179" t="s">
+      <c r="B138" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="C138" s="181" t="s">
+      <c r="C138" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="D138" s="168" t="s">
+      <c r="D138" s="169" t="s">
         <v>386</v>
       </c>
-      <c r="E138" s="168"/>
+      <c r="E138" s="169"/>
       <c r="F138" s="40"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="75">
         <v>138</v>
       </c>
-      <c r="B139" s="179"/>
-      <c r="C139" s="181"/>
-      <c r="D139" s="173" t="s">
+      <c r="B139" s="180"/>
+      <c r="C139" s="182"/>
+      <c r="D139" s="174" t="s">
         <v>383</v>
       </c>
-      <c r="E139" s="173"/>
+      <c r="E139" s="174"/>
       <c r="F139" s="40"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="75">
         <v>139</v>
       </c>
-      <c r="B140" s="179"/>
-      <c r="C140" s="181"/>
-      <c r="D140" s="173" t="s">
+      <c r="B140" s="180"/>
+      <c r="C140" s="182"/>
+      <c r="D140" s="174" t="s">
         <v>384</v>
       </c>
-      <c r="E140" s="173"/>
+      <c r="E140" s="174"/>
       <c r="F140" s="40"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="75">
         <v>140</v>
       </c>
-      <c r="B141" s="179"/>
-      <c r="C141" s="181"/>
-      <c r="D141" s="173" t="s">
+      <c r="B141" s="180"/>
+      <c r="C141" s="182"/>
+      <c r="D141" s="174" t="s">
         <v>385</v>
       </c>
-      <c r="E141" s="173"/>
+      <c r="E141" s="174"/>
       <c r="F141" s="40"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D142" s="183"/>
-      <c r="E142" s="183"/>
+      <c r="D142" s="184"/>
+      <c r="E142" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="192">
@@ -6883,7 +6969,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7363,13 +7449,13 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="192" t="s">
         <v>170</v>
       </c>
       <c r="B4" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="191"/>
+      <c r="C4" s="192"/>
       <c r="D4" s="63"/>
       <c r="E4" s="63"/>
       <c r="F4" s="63"/>
@@ -7381,11 +7467,11 @@
       <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="191"/>
+      <c r="A5" s="192"/>
       <c r="B5" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="191"/>
+      <c r="C5" s="192"/>
       <c r="D5" s="63"/>
       <c r="E5" s="63"/>
       <c r="F5" s="63"/>
@@ -7397,11 +7483,11 @@
       <c r="L5" s="63"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="191"/>
+      <c r="A6" s="192"/>
       <c r="B6" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="191"/>
+      <c r="C6" s="192"/>
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
@@ -7413,11 +7499,11 @@
       <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="191"/>
+      <c r="A7" s="192"/>
       <c r="B7" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="191"/>
+      <c r="C7" s="192"/>
       <c r="D7" s="63"/>
       <c r="E7" s="63"/>
       <c r="F7" s="63"/>
@@ -7429,13 +7515,13 @@
       <c r="L7" s="63"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="193" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="192"/>
+      <c r="C8" s="193"/>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
@@ -7447,11 +7533,11 @@
       <c r="L8" s="66"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="192"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="192"/>
+      <c r="C9" s="193"/>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
@@ -7463,11 +7549,11 @@
       <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="192"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="192"/>
+      <c r="C10" s="193"/>
       <c r="D10" s="66"/>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
@@ -7479,11 +7565,11 @@
       <c r="L10" s="66"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="192"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="192"/>
+      <c r="C11" s="193"/>
       <c r="D11" s="66"/>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -7495,13 +7581,13 @@
       <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="194" t="s">
         <v>180</v>
       </c>
       <c r="B12" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="193"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
@@ -7513,11 +7599,11 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="193"/>
+      <c r="A13" s="194"/>
       <c r="B13" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="193"/>
+      <c r="C13" s="194"/>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
@@ -7529,11 +7615,11 @@
       <c r="L13" s="67"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="193"/>
+      <c r="A14" s="194"/>
       <c r="B14" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="193"/>
+      <c r="C14" s="194"/>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
@@ -7545,13 +7631,13 @@
       <c r="L14" s="67"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="189" t="s">
+      <c r="A15" s="190" t="s">
         <v>184</v>
       </c>
       <c r="B15" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="189"/>
+      <c r="C15" s="190"/>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
       <c r="F15" s="68"/>
@@ -7563,11 +7649,11 @@
       <c r="L15" s="68"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="189"/>
+      <c r="A16" s="190"/>
       <c r="B16" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="189"/>
+      <c r="C16" s="190"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
       <c r="F16" s="68"/>
@@ -7579,11 +7665,11 @@
       <c r="L16" s="68"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="189"/>
+      <c r="A17" s="190"/>
       <c r="B17" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="189"/>
+      <c r="C17" s="190"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
       <c r="F17" s="68"/>
@@ -7595,13 +7681,13 @@
       <c r="L17" s="68"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="190" t="s">
+      <c r="A18" s="191" t="s">
         <v>188</v>
       </c>
       <c r="B18" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="190"/>
+      <c r="C18" s="191"/>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
@@ -7613,11 +7699,11 @@
       <c r="L18" s="59"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="190"/>
+      <c r="A19" s="191"/>
       <c r="B19" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="190"/>
+      <c r="C19" s="191"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
@@ -7629,11 +7715,11 @@
       <c r="L19" s="59"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="190"/>
+      <c r="A20" s="191"/>
       <c r="B20" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="190"/>
+      <c r="C20" s="191"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
       <c r="F20" s="59"/>
@@ -7645,11 +7731,11 @@
       <c r="L20" s="59"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="190"/>
+      <c r="A21" s="191"/>
       <c r="B21" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="190"/>
+      <c r="C21" s="191"/>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
       <c r="F21" s="59"/>
@@ -7682,8 +7768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0556495F-6BCE-4F41-95DC-BD674A811C6D}">
   <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C28" activeCellId="1" sqref="A166:G169 C28"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7725,7 +7811,7 @@
       <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="210" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -7738,7 +7824,7 @@
       <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="210"/>
+      <c r="A3" s="211"/>
       <c r="B3" s="43" t="s">
         <v>199</v>
       </c>
@@ -7755,7 +7841,7 @@
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="211"/>
+      <c r="A4" s="212"/>
       <c r="B4" s="43" t="s">
         <v>206</v>
       </c>
@@ -7781,7 +7867,7 @@
       <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="212" t="s">
+      <c r="A6" s="213" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="45" t="s">
@@ -7800,7 +7886,7 @@
       <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="213"/>
+      <c r="A7" s="214"/>
       <c r="B7" s="45" t="s">
         <v>201</v>
       </c>
@@ -7815,7 +7901,7 @@
       <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="213"/>
+      <c r="A8" s="214"/>
       <c r="B8" s="45" t="s">
         <v>209</v>
       </c>
@@ -7830,7 +7916,7 @@
       <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="213"/>
+      <c r="A9" s="214"/>
       <c r="B9" s="45" t="s">
         <v>202</v>
       </c>
@@ -7845,7 +7931,7 @@
       <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="213"/>
+      <c r="A10" s="214"/>
       <c r="B10" s="45" t="s">
         <v>212</v>
       </c>
@@ -7863,7 +7949,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="214"/>
+      <c r="A11" s="215"/>
       <c r="B11" s="45" t="s">
         <v>215</v>
       </c>
@@ -7885,7 +7971,7 @@
       <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="215" t="s">
+      <c r="A13" s="216" t="s">
         <v>203</v>
       </c>
       <c r="B13" s="55" t="s">
@@ -7902,7 +7988,7 @@
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="216"/>
+      <c r="A14" s="217"/>
       <c r="B14" s="55" t="s">
         <v>231</v>
       </c>
@@ -7915,7 +8001,7 @@
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="216"/>
+      <c r="A15" s="217"/>
       <c r="B15" s="55" t="s">
         <v>233</v>
       </c>
@@ -7928,7 +8014,7 @@
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="216"/>
+      <c r="A16" s="217"/>
       <c r="B16" s="55" t="s">
         <v>4</v>
       </c>
@@ -7943,7 +8029,7 @@
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="216"/>
+      <c r="A17" s="217"/>
       <c r="B17" s="55" t="s">
         <v>235</v>
       </c>
@@ -7958,7 +8044,7 @@
       <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="216"/>
+      <c r="A18" s="217"/>
       <c r="B18" s="55" t="s">
         <v>236</v>
       </c>
@@ -7973,7 +8059,7 @@
       <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="217"/>
+      <c r="A19" s="218"/>
       <c r="B19" s="55" t="s">
         <v>237</v>
       </c>
@@ -7997,7 +8083,7 @@
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="218" t="s">
+      <c r="A21" s="219" t="s">
         <v>245</v>
       </c>
       <c r="B21" s="60" t="s">
@@ -8010,7 +8096,7 @@
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="219"/>
+      <c r="A22" s="220"/>
       <c r="B22" s="60" t="s">
         <v>247</v>
       </c>
@@ -8021,7 +8107,7 @@
       <c r="G22" s="59"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="219"/>
+      <c r="A23" s="220"/>
       <c r="B23" s="60" t="s">
         <v>248</v>
       </c>
@@ -8032,7 +8118,7 @@
       <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="220"/>
+      <c r="A24" s="221"/>
       <c r="B24" s="60" t="s">
         <v>255</v>
       </c>
@@ -8054,7 +8140,7 @@
       <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="221" t="s">
+      <c r="A26" s="222" t="s">
         <v>249</v>
       </c>
       <c r="B26" s="64" t="s">
@@ -8067,7 +8153,7 @@
       <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="222"/>
+      <c r="A27" s="223"/>
       <c r="B27" s="64" t="s">
         <v>251</v>
       </c>
@@ -8078,7 +8164,7 @@
       <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="222"/>
+      <c r="A28" s="223"/>
       <c r="B28" s="64" t="s">
         <v>252</v>
       </c>
@@ -8089,7 +8175,7 @@
       <c r="G28" s="63"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="222"/>
+      <c r="A29" s="223"/>
       <c r="B29" s="64" t="s">
         <v>253</v>
       </c>
@@ -8100,7 +8186,7 @@
       <c r="G29" s="63"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="223"/>
+      <c r="A30" s="224"/>
       <c r="B30" s="64" t="s">
         <v>254</v>
       </c>
@@ -8120,7 +8206,7 @@
       <c r="G31" s="63"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="196" t="s">
+      <c r="A32" s="197" t="s">
         <v>407</v>
       </c>
       <c r="B32" s="76" t="s">
@@ -8133,7 +8219,7 @@
       <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="197"/>
+      <c r="A33" s="198"/>
       <c r="B33" s="76" t="s">
         <v>269</v>
       </c>
@@ -8144,7 +8230,7 @@
       <c r="G33" s="68"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="197"/>
+      <c r="A34" s="198"/>
       <c r="B34" s="76" t="s">
         <v>270</v>
       </c>
@@ -8155,7 +8241,7 @@
       <c r="G34" s="68"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="198"/>
+      <c r="A35" s="199"/>
       <c r="B35" s="76" t="s">
         <v>271</v>
       </c>
@@ -8175,7 +8261,7 @@
       <c r="G36" s="68"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="199" t="s">
+      <c r="A37" s="200" t="s">
         <v>408</v>
       </c>
       <c r="B37" s="80" t="s">
@@ -8188,7 +8274,7 @@
       <c r="G37" s="81"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="199"/>
+      <c r="A38" s="200"/>
       <c r="B38" s="80" t="s">
         <v>274</v>
       </c>
@@ -8199,7 +8285,7 @@
       <c r="G38" s="81"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="199"/>
+      <c r="A39" s="200"/>
       <c r="B39" s="80" t="s">
         <v>275</v>
       </c>
@@ -8210,7 +8296,7 @@
       <c r="G39" s="81"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="199"/>
+      <c r="A40" s="200"/>
       <c r="B40" s="82" t="s">
         <v>427</v>
       </c>
@@ -8221,7 +8307,7 @@
       <c r="G40" s="81"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="199"/>
+      <c r="A41" s="200"/>
       <c r="B41" s="82" t="s">
         <v>277</v>
       </c>
@@ -8241,7 +8327,7 @@
       <c r="G42" s="81"/>
     </row>
     <row r="43" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="195" t="s">
+      <c r="A43" s="196" t="s">
         <v>409</v>
       </c>
       <c r="B43" s="84" t="s">
@@ -8254,7 +8340,7 @@
       <c r="G43" s="66"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="195"/>
+      <c r="A44" s="196"/>
       <c r="B44" s="84" t="s">
         <v>279</v>
       </c>
@@ -8265,7 +8351,7 @@
       <c r="G44" s="66"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="195"/>
+      <c r="A45" s="196"/>
       <c r="B45" s="84" t="s">
         <v>280</v>
       </c>
@@ -8276,7 +8362,7 @@
       <c r="G45" s="66"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="195"/>
+      <c r="A46" s="196"/>
       <c r="B46" s="84" t="s">
         <v>281</v>
       </c>
@@ -8287,7 +8373,7 @@
       <c r="G46" s="66"/>
     </row>
     <row r="47" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="195"/>
+      <c r="A47" s="196"/>
       <c r="B47" s="84" t="s">
         <v>282</v>
       </c>
@@ -8307,7 +8393,7 @@
       <c r="G48" s="66"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="194" t="s">
+      <c r="A49" s="195" t="s">
         <v>410</v>
       </c>
       <c r="B49" s="86" t="s">
@@ -8320,7 +8406,7 @@
       <c r="G49" s="63"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="194"/>
+      <c r="A50" s="195"/>
       <c r="B50" s="86" t="s">
         <v>283</v>
       </c>
@@ -8331,7 +8417,7 @@
       <c r="G50" s="63"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="194"/>
+      <c r="A51" s="195"/>
       <c r="B51" s="86" t="s">
         <v>284</v>
       </c>
@@ -8342,7 +8428,7 @@
       <c r="G51" s="63"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="194"/>
+      <c r="A52" s="195"/>
       <c r="B52" s="86" t="s">
         <v>285</v>
       </c>
@@ -8353,7 +8439,7 @@
       <c r="G52" s="63"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="194"/>
+      <c r="A53" s="195"/>
       <c r="B53" s="86" t="s">
         <v>286</v>
       </c>
@@ -8364,7 +8450,7 @@
       <c r="G53" s="63"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="194"/>
+      <c r="A54" s="195"/>
       <c r="B54" s="86" t="s">
         <v>287</v>
       </c>
@@ -8384,7 +8470,7 @@
       <c r="G55" s="63"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="203" t="s">
+      <c r="A56" s="204" t="s">
         <v>411</v>
       </c>
       <c r="B56" s="89" t="s">
@@ -8397,29 +8483,35 @@
       <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="203"/>
+      <c r="A57" s="204"/>
       <c r="B57" s="89" t="s">
         <v>292</v>
       </c>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
+      <c r="C57" s="137" t="s">
+        <v>443</v>
+      </c>
+      <c r="D57" s="137" t="s">
+        <v>444</v>
+      </c>
       <c r="E57" s="67"/>
       <c r="F57" s="67"/>
       <c r="G57" s="67"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="203"/>
+      <c r="A58" s="204"/>
       <c r="B58" s="89" t="s">
         <v>293</v>
       </c>
       <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
+      <c r="D58" s="137" t="s">
+        <v>445</v>
+      </c>
       <c r="E58" s="67"/>
       <c r="F58" s="67"/>
       <c r="G58" s="67"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="203"/>
+      <c r="A59" s="204"/>
       <c r="B59" s="89" t="s">
         <v>294</v>
       </c>
@@ -8439,7 +8531,7 @@
       <c r="G60" s="67"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="204" t="s">
+      <c r="A61" s="205" t="s">
         <v>412</v>
       </c>
       <c r="B61" s="92" t="s">
@@ -8452,7 +8544,7 @@
       <c r="G61" s="95"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="204"/>
+      <c r="A62" s="205"/>
       <c r="B62" s="92" t="s">
         <v>291</v>
       </c>
@@ -8463,7 +8555,7 @@
       <c r="G62" s="95"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="204"/>
+      <c r="A63" s="205"/>
       <c r="B63" s="92" t="s">
         <v>290</v>
       </c>
@@ -8483,7 +8575,7 @@
       <c r="G64" s="95"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="202" t="s">
+      <c r="A65" s="203" t="s">
         <v>413</v>
       </c>
       <c r="B65" s="96" t="s">
@@ -8496,7 +8588,7 @@
       <c r="G65" s="99"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="202"/>
+      <c r="A66" s="203"/>
       <c r="B66" s="96" t="s">
         <v>297</v>
       </c>
@@ -8507,7 +8599,7 @@
       <c r="G66" s="99"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="202"/>
+      <c r="A67" s="203"/>
       <c r="B67" s="96" t="s">
         <v>298</v>
       </c>
@@ -8518,7 +8610,7 @@
       <c r="G67" s="99"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="202"/>
+      <c r="A68" s="203"/>
       <c r="B68" s="96" t="s">
         <v>309</v>
       </c>
@@ -8529,7 +8621,7 @@
       <c r="G68" s="99"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="202"/>
+      <c r="A69" s="203"/>
       <c r="B69" s="96" t="s">
         <v>299</v>
       </c>
@@ -8540,7 +8632,7 @@
       <c r="G69" s="99"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="202"/>
+      <c r="A70" s="203"/>
       <c r="B70" s="96" t="s">
         <v>300</v>
       </c>
@@ -8560,7 +8652,7 @@
       <c r="G71" s="99"/>
     </row>
     <row r="72" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="200" t="s">
+      <c r="A72" s="201" t="s">
         <v>415</v>
       </c>
       <c r="B72" s="100" t="s">
@@ -8573,7 +8665,7 @@
       <c r="G72" s="59"/>
     </row>
     <row r="73" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="200"/>
+      <c r="A73" s="201"/>
       <c r="B73" s="100" t="s">
         <v>310</v>
       </c>
@@ -8593,7 +8685,7 @@
       <c r="G74" s="59"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="201" t="s">
+      <c r="A75" s="202" t="s">
         <v>414</v>
       </c>
       <c r="B75" s="102" t="s">
@@ -8606,7 +8698,7 @@
       <c r="G75" s="54"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="201"/>
+      <c r="A76" s="202"/>
       <c r="B76" s="102" t="s">
         <v>303</v>
       </c>
@@ -8617,7 +8709,7 @@
       <c r="G76" s="54"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="201"/>
+      <c r="A77" s="202"/>
       <c r="B77" s="102" t="s">
         <v>304</v>
       </c>
@@ -8628,7 +8720,7 @@
       <c r="G77" s="54"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="201"/>
+      <c r="A78" s="202"/>
       <c r="B78" s="103" t="s">
         <v>308</v>
       </c>
@@ -8639,7 +8731,7 @@
       <c r="G78" s="54"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="201"/>
+      <c r="A79" s="202"/>
       <c r="B79" s="102" t="s">
         <v>305</v>
       </c>
@@ -8650,7 +8742,7 @@
       <c r="G79" s="54"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="201"/>
+      <c r="A80" s="202"/>
       <c r="B80" s="102" t="s">
         <v>306</v>
       </c>
@@ -8661,7 +8753,7 @@
       <c r="G80" s="54"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="201"/>
+      <c r="A81" s="202"/>
       <c r="B81" s="102" t="s">
         <v>311</v>
       </c>
@@ -8672,7 +8764,7 @@
       <c r="G81" s="54"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="201"/>
+      <c r="A82" s="202"/>
       <c r="B82" s="102" t="s">
         <v>307</v>
       </c>
@@ -8692,7 +8784,7 @@
       <c r="G83" s="54"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="208" t="s">
+      <c r="A84" s="209" t="s">
         <v>416</v>
       </c>
       <c r="B84" s="106" t="s">
@@ -8705,7 +8797,7 @@
       <c r="G84" s="47"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="208"/>
+      <c r="A85" s="209"/>
       <c r="B85" s="107" t="s">
         <v>312</v>
       </c>
@@ -8716,7 +8808,7 @@
       <c r="G85" s="47"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="208"/>
+      <c r="A86" s="209"/>
       <c r="B86" s="107" t="s">
         <v>319</v>
       </c>
@@ -8727,7 +8819,7 @@
       <c r="G86" s="47"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="208"/>
+      <c r="A87" s="209"/>
       <c r="B87" s="107" t="s">
         <v>313</v>
       </c>
@@ -8738,7 +8830,7 @@
       <c r="G87" s="47"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="208"/>
+      <c r="A88" s="209"/>
       <c r="B88" s="107" t="s">
         <v>314</v>
       </c>
@@ -8749,7 +8841,7 @@
       <c r="G88" s="47"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="208"/>
+      <c r="A89" s="209"/>
       <c r="B89" s="107" t="s">
         <v>315</v>
       </c>
@@ -8760,7 +8852,7 @@
       <c r="G89" s="47"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="208"/>
+      <c r="A90" s="209"/>
       <c r="B90" s="107" t="s">
         <v>316</v>
       </c>
@@ -8771,7 +8863,7 @@
       <c r="G90" s="47"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="208"/>
+      <c r="A91" s="209"/>
       <c r="B91" s="107" t="s">
         <v>317</v>
       </c>
@@ -8782,7 +8874,7 @@
       <c r="G91" s="47"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="208"/>
+      <c r="A92" s="209"/>
       <c r="B92" s="107" t="s">
         <v>318</v>
       </c>
@@ -8802,7 +8894,7 @@
       <c r="G93" s="47"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="207" t="s">
+      <c r="A94" s="208" t="s">
         <v>417</v>
       </c>
       <c r="B94" s="112" t="s">
@@ -8815,7 +8907,7 @@
       <c r="G94" s="113"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="207"/>
+      <c r="A95" s="208"/>
       <c r="B95" s="109" t="s">
         <v>321</v>
       </c>
@@ -8826,7 +8918,7 @@
       <c r="G95" s="113"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="207"/>
+      <c r="A96" s="208"/>
       <c r="B96" s="109" t="s">
         <v>322</v>
       </c>
@@ -8837,7 +8929,7 @@
       <c r="G96" s="113"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="207"/>
+      <c r="A97" s="208"/>
       <c r="B97" s="109" t="s">
         <v>323</v>
       </c>
@@ -8848,7 +8940,7 @@
       <c r="G97" s="113"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="207"/>
+      <c r="A98" s="208"/>
       <c r="B98" s="109" t="s">
         <v>324</v>
       </c>
@@ -8859,7 +8951,7 @@
       <c r="G98" s="113"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="207"/>
+      <c r="A99" s="208"/>
       <c r="B99" s="109" t="s">
         <v>325</v>
       </c>
@@ -8870,7 +8962,7 @@
       <c r="G99" s="113"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="207"/>
+      <c r="A100" s="208"/>
       <c r="B100" s="109" t="s">
         <v>326</v>
       </c>
@@ -8881,7 +8973,7 @@
       <c r="G100" s="113"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="207"/>
+      <c r="A101" s="208"/>
       <c r="B101" s="109" t="s">
         <v>327</v>
       </c>
@@ -8892,7 +8984,7 @@
       <c r="G101" s="113"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="207"/>
+      <c r="A102" s="208"/>
       <c r="B102" s="109" t="s">
         <v>328</v>
       </c>
@@ -8903,7 +8995,7 @@
       <c r="G102" s="113"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="207"/>
+      <c r="A103" s="208"/>
       <c r="B103" s="109" t="s">
         <v>329</v>
       </c>
@@ -8923,7 +9015,7 @@
       <c r="G104" s="113"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="206" t="s">
+      <c r="A105" s="207" t="s">
         <v>418</v>
       </c>
       <c r="B105" s="115" t="s">
@@ -8936,7 +9028,7 @@
       <c r="G105" s="116"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="206"/>
+      <c r="A106" s="207"/>
       <c r="B106" s="115" t="s">
         <v>332</v>
       </c>
@@ -8947,7 +9039,7 @@
       <c r="G106" s="116"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="206"/>
+      <c r="A107" s="207"/>
       <c r="B107" s="117" t="s">
         <v>339</v>
       </c>
@@ -8958,7 +9050,7 @@
       <c r="G107" s="116"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="206"/>
+      <c r="A108" s="207"/>
       <c r="B108" s="115" t="s">
         <v>333</v>
       </c>
@@ -8969,7 +9061,7 @@
       <c r="G108" s="116"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="206"/>
+      <c r="A109" s="207"/>
       <c r="B109" s="115" t="s">
         <v>334</v>
       </c>
@@ -8980,7 +9072,7 @@
       <c r="G109" s="116"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="206"/>
+      <c r="A110" s="207"/>
       <c r="B110" s="115" t="s">
         <v>335</v>
       </c>
@@ -8991,7 +9083,7 @@
       <c r="G110" s="116"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="206"/>
+      <c r="A111" s="207"/>
       <c r="B111" s="115" t="s">
         <v>338</v>
       </c>
@@ -9002,7 +9094,7 @@
       <c r="G111" s="116"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="206"/>
+      <c r="A112" s="207"/>
       <c r="B112" s="115" t="s">
         <v>336</v>
       </c>
@@ -9013,7 +9105,7 @@
       <c r="G112" s="116"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="206"/>
+      <c r="A113" s="207"/>
       <c r="B113" s="115" t="s">
         <v>337</v>
       </c>
@@ -9033,7 +9125,7 @@
       <c r="G114" s="116"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="205" t="s">
+      <c r="A115" s="206" t="s">
         <v>419</v>
       </c>
       <c r="B115" s="120" t="s">
@@ -9046,7 +9138,7 @@
       <c r="G115" s="121"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="205"/>
+      <c r="A116" s="206"/>
       <c r="B116" s="120" t="s">
         <v>340</v>
       </c>
@@ -9057,7 +9149,7 @@
       <c r="G116" s="121"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="205"/>
+      <c r="A117" s="206"/>
       <c r="B117" s="120" t="s">
         <v>341</v>
       </c>
@@ -9068,7 +9160,7 @@
       <c r="G117" s="121"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="205"/>
+      <c r="A118" s="206"/>
       <c r="B118" s="120" t="s">
         <v>342</v>
       </c>
@@ -9079,7 +9171,7 @@
       <c r="G118" s="121"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="205"/>
+      <c r="A119" s="206"/>
       <c r="B119" s="120" t="s">
         <v>343</v>
       </c>
@@ -9099,7 +9191,7 @@
       <c r="G120" s="121"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="194" t="s">
+      <c r="A121" s="195" t="s">
         <v>420</v>
       </c>
       <c r="B121" s="123" t="s">
@@ -9112,7 +9204,7 @@
       <c r="G121" s="63"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="194"/>
+      <c r="A122" s="195"/>
       <c r="B122" s="86" t="s">
         <v>345</v>
       </c>
@@ -9123,7 +9215,7 @@
       <c r="G122" s="63"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="194"/>
+      <c r="A123" s="195"/>
       <c r="B123" s="86" t="s">
         <v>346</v>
       </c>
@@ -9134,7 +9226,7 @@
       <c r="G123" s="63"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="194"/>
+      <c r="A124" s="195"/>
       <c r="B124" s="86" t="s">
         <v>347</v>
       </c>
@@ -9145,7 +9237,7 @@
       <c r="G124" s="63"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="194"/>
+      <c r="A125" s="195"/>
       <c r="B125" s="86" t="s">
         <v>348</v>
       </c>
@@ -9156,7 +9248,7 @@
       <c r="G125" s="63"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="194"/>
+      <c r="A126" s="195"/>
       <c r="B126" s="86" t="s">
         <v>349</v>
       </c>
@@ -9176,7 +9268,7 @@
       <c r="G127" s="63"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="204" t="s">
+      <c r="A128" s="205" t="s">
         <v>421</v>
       </c>
       <c r="B128" s="92" t="s">
@@ -9189,7 +9281,7 @@
       <c r="G128" s="95"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="204"/>
+      <c r="A129" s="205"/>
       <c r="B129" s="92" t="s">
         <v>353</v>
       </c>
@@ -9200,7 +9292,7 @@
       <c r="G129" s="95"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="204"/>
+      <c r="A130" s="205"/>
       <c r="B130" s="92" t="s">
         <v>352</v>
       </c>
@@ -9220,7 +9312,7 @@
       <c r="G131" s="95"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="207" t="s">
+      <c r="A132" s="208" t="s">
         <v>422</v>
       </c>
       <c r="B132" s="109" t="s">
@@ -9233,7 +9325,7 @@
       <c r="G132" s="113"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="207"/>
+      <c r="A133" s="208"/>
       <c r="B133" s="109" t="s">
         <v>355</v>
       </c>
@@ -9244,7 +9336,7 @@
       <c r="G133" s="113"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="207"/>
+      <c r="A134" s="208"/>
       <c r="B134" s="124" t="s">
         <v>358</v>
       </c>
@@ -9255,7 +9347,7 @@
       <c r="G134" s="113"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="207"/>
+      <c r="A135" s="208"/>
       <c r="B135" s="109" t="s">
         <v>356</v>
       </c>
@@ -9266,7 +9358,7 @@
       <c r="G135" s="113"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="207"/>
+      <c r="A136" s="208"/>
       <c r="B136" s="109" t="s">
         <v>357</v>
       </c>
@@ -9286,7 +9378,7 @@
       <c r="G137" s="113"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="203" t="s">
+      <c r="A138" s="204" t="s">
         <v>423</v>
       </c>
       <c r="B138" s="89" t="s">
@@ -9299,7 +9391,7 @@
       <c r="G138" s="67"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="203"/>
+      <c r="A139" s="204"/>
       <c r="B139" s="125" t="s">
         <v>364</v>
       </c>
@@ -9310,7 +9402,7 @@
       <c r="G139" s="67"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="203"/>
+      <c r="A140" s="204"/>
       <c r="B140" s="89" t="s">
         <v>360</v>
       </c>
@@ -9321,7 +9413,7 @@
       <c r="G140" s="67"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="203"/>
+      <c r="A141" s="204"/>
       <c r="B141" s="89" t="s">
         <v>361</v>
       </c>
@@ -9332,7 +9424,7 @@
       <c r="G141" s="67"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="203"/>
+      <c r="A142" s="204"/>
       <c r="B142" s="89" t="s">
         <v>362</v>
       </c>
@@ -9343,7 +9435,7 @@
       <c r="G142" s="67"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="203"/>
+      <c r="A143" s="204"/>
       <c r="B143" s="89" t="s">
         <v>363</v>
       </c>
@@ -9363,7 +9455,7 @@
       <c r="G144" s="67"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="200" t="s">
+      <c r="A145" s="201" t="s">
         <v>424</v>
       </c>
       <c r="B145" s="126" t="s">
@@ -9376,7 +9468,7 @@
       <c r="G145" s="59"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="200"/>
+      <c r="A146" s="201"/>
       <c r="B146" s="100" t="s">
         <v>365</v>
       </c>
@@ -9387,7 +9479,7 @@
       <c r="G146" s="59"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="200"/>
+      <c r="A147" s="201"/>
       <c r="B147" s="100" t="s">
         <v>366</v>
       </c>
@@ -9398,7 +9490,7 @@
       <c r="G147" s="59"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="200"/>
+      <c r="A148" s="201"/>
       <c r="B148" s="100" t="s">
         <v>367</v>
       </c>
@@ -9409,7 +9501,7 @@
       <c r="G148" s="59"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="200"/>
+      <c r="A149" s="201"/>
       <c r="B149" s="100" t="s">
         <v>368</v>
       </c>
@@ -9420,7 +9512,7 @@
       <c r="G149" s="59"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="200"/>
+      <c r="A150" s="201"/>
       <c r="B150" s="100" t="s">
         <v>369</v>
       </c>
@@ -9431,7 +9523,7 @@
       <c r="G150" s="59"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="200"/>
+      <c r="A151" s="201"/>
       <c r="B151" s="100" t="s">
         <v>370</v>
       </c>
@@ -9442,7 +9534,7 @@
       <c r="G151" s="59"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="200"/>
+      <c r="A152" s="201"/>
       <c r="B152" s="100" t="s">
         <v>371</v>
       </c>
@@ -9462,7 +9554,7 @@
       <c r="G153" s="59"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="201" t="s">
+      <c r="A154" s="202" t="s">
         <v>425</v>
       </c>
       <c r="B154" s="127" t="s">
@@ -9475,7 +9567,7 @@
       <c r="G154" s="54"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="201"/>
+      <c r="A155" s="202"/>
       <c r="B155" s="102" t="s">
         <v>364</v>
       </c>
@@ -9486,7 +9578,7 @@
       <c r="G155" s="54"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="201"/>
+      <c r="A156" s="202"/>
       <c r="B156" s="102" t="s">
         <v>373</v>
       </c>
@@ -9497,7 +9589,7 @@
       <c r="G156" s="54"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="201"/>
+      <c r="A157" s="202"/>
       <c r="B157" s="102" t="s">
         <v>374</v>
       </c>
@@ -9508,7 +9600,7 @@
       <c r="G157" s="54"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="201"/>
+      <c r="A158" s="202"/>
       <c r="B158" s="102" t="s">
         <v>375</v>
       </c>
@@ -9519,7 +9611,7 @@
       <c r="G158" s="54"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="201"/>
+      <c r="A159" s="202"/>
       <c r="B159" s="102" t="s">
         <v>376</v>
       </c>
@@ -9530,7 +9622,7 @@
       <c r="G159" s="54"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="201"/>
+      <c r="A160" s="202"/>
       <c r="B160" s="102" t="s">
         <v>377</v>
       </c>
@@ -9541,7 +9633,7 @@
       <c r="G160" s="54"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="201"/>
+      <c r="A161" s="202"/>
       <c r="B161" s="102" t="s">
         <v>378</v>
       </c>
@@ -9552,7 +9644,7 @@
       <c r="G161" s="54"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="201"/>
+      <c r="A162" s="202"/>
       <c r="B162" s="102" t="s">
         <v>379</v>
       </c>
@@ -9563,7 +9655,7 @@
       <c r="G162" s="54"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="201"/>
+      <c r="A163" s="202"/>
       <c r="B163" s="102" t="s">
         <v>380</v>
       </c>
@@ -9574,7 +9666,7 @@
       <c r="G163" s="54"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="201"/>
+      <c r="A164" s="202"/>
       <c r="B164" s="102" t="s">
         <v>381</v>
       </c>
@@ -9594,7 +9686,7 @@
       <c r="G165" s="54"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="204" t="s">
+      <c r="A166" s="205" t="s">
         <v>426</v>
       </c>
       <c r="B166" s="128" t="s">
@@ -9607,7 +9699,7 @@
       <c r="G166" s="95"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="204"/>
+      <c r="A167" s="205"/>
       <c r="B167" s="92" t="s">
         <v>383</v>
       </c>
@@ -9618,7 +9710,7 @@
       <c r="G167" s="95"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="204"/>
+      <c r="A168" s="205"/>
       <c r="B168" s="92" t="s">
         <v>384</v>
       </c>
@@ -9629,7 +9721,7 @@
       <c r="G168" s="95"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="204"/>
+      <c r="A169" s="205"/>
       <c r="B169" s="92" t="s">
         <v>385</v>
       </c>
@@ -9682,21 +9774,94 @@
     <hyperlink ref="C16" r:id="rId12" xr:uid="{8D389E1C-1F2B-4563-B087-DB0525B559A9}"/>
     <hyperlink ref="C18" r:id="rId13" xr:uid="{572B6019-19A6-47A4-963F-9B2DF1F7EA96}"/>
     <hyperlink ref="C24" r:id="rId14" xr:uid="{5FC3B9A0-18A9-4CFD-91E4-392F31F4C172}"/>
+    <hyperlink ref="C57" r:id="rId15" xr:uid="{4048BACF-3759-466F-9BFF-00F6E0094CD3}"/>
+    <hyperlink ref="D57" r:id="rId16" xr:uid="{40F19CA6-6521-47A5-BF8F-7E6C9A989147}"/>
+    <hyperlink ref="D58" r:id="rId17" xr:uid="{1A34514B-9692-4D90-BF92-F355672DA231}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01391A7-3697-4DA3-A881-AD48EC90EE4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5260348-9CC0-4C50-97DF-0FAE11166CBC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01391A7-3697-4DA3-A881-AD48EC90EE4A}">
+  <dimension ref="B3:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="87.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="136" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="136" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="136" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{C0E479AA-7CE2-4283-9E1F-AA8499635517}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{22AF826A-5CE0-49C8-8286-BC26530DE9E8}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{BCE7A63F-C669-445F-A334-D9095F4A0448}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F77E765-157F-407B-9B1C-4F8792DD7BEB}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
